--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B64BD-D2F4-AA41-B675-AD52EA9726EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2065E98-926C-E94D-AC1A-62C381C24732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1235">
   <si>
     <t>材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18245,6 +18245,12 @@
   </si>
   <si>
     <t>喷气式煤油(Jet Kerosene)</t>
+  </si>
+  <si>
+    <t>残余燃料油Residual Fuel Oil</t>
+  </si>
+  <si>
+    <t>液化石油气Liquefied Petroleum Gases</t>
   </si>
 </sst>
 </file>
@@ -18824,8 +18830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21806,7 +21812,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>470</v>
+        <v>1233</v>
       </c>
       <c r="B72" s="11">
         <v>77</v>
@@ -21837,7 +21843,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>471</v>
+        <v>1234</v>
       </c>
       <c r="B73" s="11">
         <v>66.400000000000006</v>
@@ -42567,23 +42573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -42709,25 +42698,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42743,4 +42731,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E860C607-4EE2-9745-91C8-80E51B524700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4CFA1-59CC-F141-8DF9-03EA1C54F905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="能源(Energy Sources)" sheetId="1" r:id="rId1"/>
@@ -11496,8 +11496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView topLeftCell="P175" zoomScale="57" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -35231,7 +35231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EE8646-B0AA-4F97-97D1-366896B21C19}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -37238,6 +37238,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -37363,24 +37380,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37396,22 +37414,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4CFA1-59CC-F141-8DF9-03EA1C54F905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98DE5BE-41D8-1A48-8657-FAAA728DCC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1226">
   <si>
     <t>材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10896,6 +10896,9 @@
   </si>
   <si>
     <t>委内瑞拉(Venezuela)</t>
+  </si>
+  <si>
+    <t>无烟煤</t>
   </si>
 </sst>
 </file>
@@ -11496,8 +11499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11574,7 +11577,7 @@
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="15" t="s">
-        <v>1127</v>
+        <v>1225</v>
       </c>
       <c r="B2" s="7">
         <v>94.44</v>
@@ -37238,23 +37241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -37380,25 +37366,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37414,4 +37399,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98DE5BE-41D8-1A48-8657-FAAA728DCC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A7BD1-A955-5949-B83F-C7FAC78B91A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="能源(Energy Sources)" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="1225">
   <si>
     <t>材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10637,9 +10659,6 @@
   </si>
   <si>
     <t>一般煤油(General Kerosene)</t>
-  </si>
-  <si>
-    <t>NGL天然气凝液(NGL Natural Gas Condensate)</t>
   </si>
   <si>
     <t>LPG液化石油气(LPG liquefied petroleum gas)</t>
@@ -11499,8 +11518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A20" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11577,7 +11596,7 @@
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B2" s="7">
         <v>94.44</v>
@@ -12161,8 +12180,9 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="16">
-      <c r="A15" s="15" t="s">
-        <v>1139</v>
+      <c r="A15" s="15" t="e" cm="1">
+        <f t="array" aca="1" ref="A15" ca="1">A14天然气凝液(NGL Natural Gas Condensate)</f>
+        <v>#NAME?</v>
       </c>
       <c r="B15" s="7">
         <v>61.81</v>
@@ -12207,7 +12227,7 @@
     </row>
     <row r="16" spans="1:17" ht="16">
       <c r="A16" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B16" s="7">
         <v>61.81</v>
@@ -12252,7 +12272,7 @@
     </row>
     <row r="17" spans="1:17" ht="16">
       <c r="A17" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B17" s="7">
         <v>65.400000000000006</v>
@@ -12297,7 +12317,7 @@
     </row>
     <row r="18" spans="1:17" ht="16">
       <c r="A18" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B18" s="7">
         <v>71.87</v>
@@ -12342,7 +12362,7 @@
     </row>
     <row r="19" spans="1:17" ht="16">
       <c r="A19" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B19" s="7">
         <v>79.05</v>
@@ -12387,7 +12407,7 @@
     </row>
     <row r="20" spans="1:17" ht="16">
       <c r="A20" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B20" s="7">
         <v>71.87</v>
@@ -12432,7 +12452,7 @@
     </row>
     <row r="21" spans="1:17" ht="16">
       <c r="A21" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B21" s="7">
         <v>98.82</v>
@@ -12477,7 +12497,7 @@
     </row>
     <row r="22" spans="1:17" ht="16">
       <c r="A22" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B22" s="7">
         <v>71.87</v>
@@ -12522,7 +12542,7 @@
     </row>
     <row r="23" spans="1:17" ht="16">
       <c r="A23" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B23" s="7">
         <v>71.87</v>
@@ -12567,7 +12587,7 @@
     </row>
     <row r="24" spans="1:17" ht="16">
       <c r="A24" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B24" s="7">
         <v>55.54</v>
@@ -12612,7 +12632,7 @@
     </row>
     <row r="25" spans="1:17" ht="16">
       <c r="A25" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B25" s="7">
         <v>91.7</v>
@@ -12657,7 +12677,7 @@
     </row>
     <row r="26" spans="1:17" ht="16">
       <c r="A26" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B26" s="7">
         <v>143</v>
@@ -12702,7 +12722,7 @@
     </row>
     <row r="27" spans="1:17" ht="16">
       <c r="A27" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B27" s="7">
         <v>73.3</v>
@@ -12747,7 +12767,7 @@
     </row>
     <row r="28" spans="1:17" ht="16">
       <c r="A28" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B28" s="7">
         <v>106</v>
@@ -12792,7 +12812,7 @@
     </row>
     <row r="29" spans="1:17" ht="16">
       <c r="A29" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B29" s="7">
         <v>112</v>
@@ -12837,7 +12857,7 @@
     </row>
     <row r="30" spans="1:17" ht="16">
       <c r="A30" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B30" s="7">
         <v>95.3</v>
@@ -12882,7 +12902,7 @@
     </row>
     <row r="31" spans="1:17" ht="16">
       <c r="A31" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B31" s="7">
         <v>112</v>
@@ -12927,7 +12947,7 @@
     </row>
     <row r="32" spans="1:17" ht="16">
       <c r="A32" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B32" s="7">
         <v>100</v>
@@ -12972,7 +12992,7 @@
     </row>
     <row r="33" spans="1:17" ht="16">
       <c r="A33" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B33" s="7">
         <v>70.8</v>
@@ -13017,7 +13037,7 @@
     </row>
     <row r="34" spans="1:17" ht="16">
       <c r="A34" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B34" s="7">
         <v>70.8</v>
@@ -13062,7 +13082,7 @@
     </row>
     <row r="35" spans="1:17" ht="16">
       <c r="A35" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B35" s="7">
         <v>79.599999999999994</v>
@@ -13107,7 +13127,7 @@
     </row>
     <row r="36" spans="1:17" ht="16">
       <c r="A36" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B36" s="7">
         <v>54.6</v>
@@ -13152,7 +13172,7 @@
     </row>
     <row r="37" spans="1:17" ht="16">
       <c r="A37" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B37" s="7">
         <v>54.6</v>
@@ -13197,7 +13217,7 @@
     </row>
     <row r="38" spans="1:17" ht="16">
       <c r="A38" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B38" s="7">
         <v>54.6</v>
@@ -13242,7 +13262,7 @@
     </row>
     <row r="39" spans="1:17" ht="16">
       <c r="A39" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B39" s="7">
         <v>100</v>
@@ -13287,7 +13307,7 @@
     </row>
     <row r="40" spans="1:17" ht="16">
       <c r="A40" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -13324,7 +13344,7 @@
     </row>
     <row r="41" spans="1:17" ht="16">
       <c r="A41" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -13361,7 +13381,7 @@
     </row>
     <row r="42" spans="1:17" ht="16">
       <c r="A42" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -13398,7 +13418,7 @@
     </row>
     <row r="43" spans="1:17" ht="16">
       <c r="A43" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13435,7 +13455,7 @@
     </row>
     <row r="44" spans="1:17" ht="16">
       <c r="A44" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -13472,7 +13492,7 @@
     </row>
     <row r="45" spans="1:17" ht="16">
       <c r="A45" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -13509,7 +13529,7 @@
     </row>
     <row r="46" spans="1:17" ht="16">
       <c r="A46" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -13546,7 +13566,7 @@
     </row>
     <row r="47" spans="1:17" ht="16">
       <c r="A47" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B47" s="7">
         <v>91.43</v>
@@ -13644,7 +13664,7 @@
     </row>
     <row r="49" spans="1:17" ht="16">
       <c r="A49" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B49" s="7">
         <v>89.44</v>
@@ -13742,7 +13762,7 @@
     </row>
     <row r="51" spans="1:17" ht="16">
       <c r="A51" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B51" s="7">
         <v>91.71</v>
@@ -13791,7 +13811,7 @@
     </row>
     <row r="52" spans="1:17" ht="16">
       <c r="A52" s="16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B52" s="7">
         <v>91.71</v>
@@ -13840,7 +13860,7 @@
     </row>
     <row r="53" spans="1:17" ht="16">
       <c r="A53" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B53" s="7">
         <v>91.71</v>
@@ -13938,7 +13958,7 @@
     </row>
     <row r="55" spans="1:17" ht="16">
       <c r="A55" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B55" s="7">
         <v>93.15</v>
@@ -13987,7 +14007,7 @@
     </row>
     <row r="56" spans="1:17" ht="17">
       <c r="A56" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B56" s="7">
         <v>44.42</v>
@@ -14036,7 +14056,7 @@
     </row>
     <row r="57" spans="1:17" ht="17">
       <c r="A57" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B57" s="7">
         <v>259.66000000000003</v>
@@ -14085,7 +14105,7 @@
     </row>
     <row r="58" spans="1:17" ht="17">
       <c r="A58" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B58" s="7">
         <v>181.92</v>
@@ -14134,7 +14154,7 @@
     </row>
     <row r="59" spans="1:17" ht="17">
       <c r="A59" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B59" s="7">
         <v>44.34</v>
@@ -14281,7 +14301,7 @@
     </row>
     <row r="62" spans="1:17" ht="16">
       <c r="A62" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B62" s="7">
         <v>70.680000000000007</v>
@@ -14330,7 +14350,7 @@
     </row>
     <row r="63" spans="1:17" ht="16">
       <c r="A63" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B63" s="7">
         <v>72.84</v>
@@ -14379,7 +14399,7 @@
     </row>
     <row r="64" spans="1:17" ht="16">
       <c r="A64" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B64" s="7">
         <v>76.069999999999993</v>
@@ -14428,7 +14448,7 @@
     </row>
     <row r="65" spans="1:17" ht="16">
       <c r="A65" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B65" s="7">
         <v>61.86</v>
@@ -14477,7 +14497,7 @@
     </row>
     <row r="66" spans="1:17" ht="16">
       <c r="A66" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B66" s="7">
         <v>65.459999999999994</v>
@@ -14526,7 +14546,7 @@
     </row>
     <row r="67" spans="1:17" ht="16">
       <c r="A67" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B67" s="7">
         <v>79.31</v>
@@ -14575,7 +14595,7 @@
     </row>
     <row r="68" spans="1:17" ht="16">
       <c r="A68" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B68" s="7">
         <v>62.06</v>
@@ -14624,7 +14644,7 @@
     </row>
     <row r="69" spans="1:17" ht="17">
       <c r="A69" s="16" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B69" s="7">
         <v>55.6</v>
@@ -14692,7 +14712,7 @@
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="17" t="s">
@@ -14729,7 +14749,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="17" t="s">
@@ -14747,7 +14767,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B72" s="7">
         <v>77</v>
@@ -14766,7 +14786,7 @@
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M72" s="7"/>
       <c r="N72" s="17" t="s">
@@ -14784,7 +14804,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B73" s="7">
         <v>66.400000000000006</v>
@@ -14803,7 +14823,7 @@
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="17" t="s">
@@ -14840,7 +14860,7 @@
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="17" t="s">
@@ -14858,7 +14878,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B75" s="7">
         <v>113</v>
@@ -14877,7 +14897,7 @@
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="17" t="s">
@@ -14895,7 +14915,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B76" s="7">
         <v>56</v>
@@ -14914,7 +14934,7 @@
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="17" t="s">
@@ -14932,7 +14952,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B77" s="7">
         <v>72.3</v>
@@ -14951,7 +14971,7 @@
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="17" t="s">
@@ -14988,7 +15008,7 @@
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="17" t="s">
@@ -15006,7 +15026,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B79" s="7">
         <v>93.2</v>
@@ -15043,7 +15063,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B80" s="7">
         <v>94.7</v>
@@ -15117,7 +15137,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B82" s="7">
         <v>56.8</v>
@@ -15136,7 +15156,7 @@
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="17" t="s">
@@ -15173,7 +15193,7 @@
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M83" s="7"/>
       <c r="N83" s="17" t="s">
@@ -15191,7 +15211,7 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B84" s="7">
         <v>54.8</v>
@@ -15210,7 +15230,7 @@
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M84" s="7"/>
       <c r="N84" s="17" t="s">
@@ -15228,7 +15248,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B85" s="7">
         <v>77.680000000000007</v>
@@ -15247,7 +15267,7 @@
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="17" t="s">
@@ -15265,7 +15285,7 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B86" s="7">
         <v>117.76600000000001</v>
@@ -15284,7 +15304,7 @@
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M86" s="7"/>
       <c r="N86" s="17" t="s">
@@ -15302,7 +15322,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B87" s="7">
         <v>115</v>
@@ -15321,7 +15341,7 @@
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M87" s="7"/>
       <c r="N87" s="17" t="s">
@@ -15339,7 +15359,7 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B88" s="7">
         <v>122.32</v>
@@ -15358,7 +15378,7 @@
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M88" s="7"/>
       <c r="N88" s="17" t="s">
@@ -15376,7 +15396,7 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B89" s="7">
         <v>97</v>
@@ -15395,7 +15415,7 @@
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M89" s="7"/>
       <c r="N89" s="17" t="s">
@@ -15413,7 +15433,7 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B90" s="7">
         <v>54.9</v>
@@ -15432,7 +15452,7 @@
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M90" s="7"/>
       <c r="N90" s="17" t="s">
@@ -15450,7 +15470,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B91" s="7">
         <v>48.88</v>
@@ -15469,7 +15489,7 @@
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="M91" s="7"/>
       <c r="N91" s="17" t="s">
@@ -15487,7 +15507,7 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B92" s="7">
         <v>17.600000000000001</v>
@@ -15506,7 +15526,7 @@
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M92" s="7"/>
       <c r="N92" s="17" t="s">
@@ -15524,7 +15544,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B93" s="7">
         <v>73.599999999999994</v>
@@ -15543,7 +15563,7 @@
       </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M93" s="7"/>
       <c r="N93" s="17" t="s">
@@ -15561,7 +15581,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B94" s="7">
         <v>79.400000000000006</v>
@@ -15580,7 +15600,7 @@
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M94" s="7"/>
       <c r="N94" s="17" t="s">
@@ -15598,7 +15618,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B95" s="7">
         <v>82</v>
@@ -15617,7 +15637,7 @@
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="M95" s="7"/>
       <c r="N95" s="17" t="s">
@@ -15635,7 +15655,7 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B96" s="7">
         <v>72.5</v>
@@ -15654,7 +15674,7 @@
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M96" s="7"/>
       <c r="N96" s="17" t="s">
@@ -15672,7 +15692,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B97" s="7">
         <v>86</v>
@@ -15691,7 +15711,7 @@
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M97" s="7"/>
       <c r="N97" s="17" t="s">
@@ -15709,7 +15729,7 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B98" s="7">
         <v>79</v>
@@ -15728,7 +15748,7 @@
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M98" s="7"/>
       <c r="N98" s="17" t="s">
@@ -15746,7 +15766,7 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B99" s="7">
         <v>79</v>
@@ -15765,7 +15785,7 @@
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M99" s="7"/>
       <c r="N99" s="17" t="s">
@@ -15783,7 +15803,7 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B100" s="7">
         <v>85</v>
@@ -15802,7 +15822,7 @@
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M100" s="7"/>
       <c r="N100" s="17" t="s">
@@ -15820,7 +15840,7 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B101" s="7">
         <v>73.599999999999994</v>
@@ -15839,7 +15859,7 @@
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M101" s="7"/>
       <c r="N101" s="17" t="s">
@@ -15857,7 +15877,7 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B102" s="7">
         <v>80</v>
@@ -15876,7 +15896,7 @@
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M102" s="7"/>
       <c r="N102" s="17" t="s">
@@ -15894,7 +15914,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>404</v>
@@ -15913,7 +15933,7 @@
       </c>
       <c r="K103" s="7"/>
       <c r="L103" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="M103" s="7"/>
       <c r="N103" s="17" t="s">
@@ -16042,7 +16062,7 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B107" s="7">
         <v>111.9</v>
@@ -16079,7 +16099,7 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B108" s="7">
         <v>41.2</v>
@@ -16116,7 +16136,7 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B109" s="7">
         <v>247.4</v>
@@ -16153,7 +16173,7 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B110" s="7">
         <v>56.5</v>
@@ -16190,7 +16210,7 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B111" s="7">
         <v>106.1</v>
@@ -16264,7 +16284,7 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B113" s="7">
         <v>95.81</v>
@@ -16338,7 +16358,7 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B115" s="7">
         <v>43.9</v>
@@ -16375,7 +16395,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B116" s="7">
         <v>61.5</v>
@@ -16486,7 +16506,7 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B119" s="7">
         <v>194.3</v>
@@ -16523,7 +16543,7 @@
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B120" s="7">
         <v>261.89999999999998</v>
@@ -16560,7 +16580,7 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B121" s="7">
         <v>99</v>
@@ -16579,7 +16599,7 @@
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M121" s="7"/>
       <c r="N121" s="17" t="s">
@@ -16597,7 +16617,7 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B122" s="7">
         <v>41.2</v>
@@ -16634,7 +16654,7 @@
     </row>
     <row r="123" spans="1:17" ht="46">
       <c r="A123" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B123" s="7">
         <v>93.36</v>
@@ -16653,7 +16673,7 @@
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="M123" s="7"/>
       <c r="N123" s="17" t="s">
@@ -16671,7 +16691,7 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B124" s="7">
         <v>79.8</v>
@@ -16727,7 +16747,7 @@
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M125" s="7"/>
       <c r="N125" s="17" t="s">
@@ -16745,7 +16765,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B126" s="7">
         <v>109.6</v>
@@ -16764,7 +16784,7 @@
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M126" s="7"/>
       <c r="N126" s="17" t="s">
@@ -16782,7 +16802,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B127" s="7">
         <v>98.1</v>
@@ -16801,7 +16821,7 @@
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M127" s="7"/>
       <c r="N127" s="17" t="s">
@@ -16838,7 +16858,7 @@
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="M128" s="7"/>
       <c r="N128" s="17" t="s">
@@ -16875,7 +16895,7 @@
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" s="17" t="s">
@@ -16893,7 +16913,7 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B130" s="7">
         <v>65.5</v>
@@ -16930,7 +16950,7 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B131" s="7">
         <v>98.5</v>
@@ -16949,7 +16969,7 @@
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M131" s="7"/>
       <c r="N131" s="17" t="s">
@@ -16967,7 +16987,7 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B132" s="7">
         <v>55.59</v>
@@ -16986,7 +17006,7 @@
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M132" s="7"/>
       <c r="N132" s="17" t="s">
@@ -17004,7 +17024,7 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B133" s="7">
         <v>55.77</v>
@@ -17023,7 +17043,7 @@
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M133" s="7"/>
       <c r="N133" s="17" t="s">
@@ -17041,7 +17061,7 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B134" s="7">
         <v>56.37</v>
@@ -17060,7 +17080,7 @@
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="M134" s="7"/>
       <c r="N134" s="17" t="s">
@@ -17078,7 +17098,7 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B135" s="7">
         <v>55.24</v>
@@ -17097,7 +17117,7 @@
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M135" s="7"/>
       <c r="N135" s="17" t="s">
@@ -17115,7 +17135,7 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B136" s="7">
         <v>95.7</v>
@@ -17152,7 +17172,7 @@
     </row>
     <row r="137" spans="1:17" ht="16">
       <c r="A137" s="18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B137" s="7">
         <v>82.7</v>
@@ -17189,7 +17209,7 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B138" s="7">
         <v>94.64</v>
@@ -17208,7 +17228,7 @@
       </c>
       <c r="K138" s="7"/>
       <c r="L138" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="M138" s="7">
         <v>2008</v>
@@ -17228,7 +17248,7 @@
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B139" s="7">
         <v>92.64</v>
@@ -17267,7 +17287,7 @@
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B140" s="7">
         <v>94.4</v>
@@ -17286,7 +17306,7 @@
       </c>
       <c r="K140" s="7"/>
       <c r="L140" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="M140" s="7">
         <v>2008</v>
@@ -17306,7 +17326,7 @@
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B141" s="7">
         <v>93.99</v>
@@ -17325,7 +17345,7 @@
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M141" s="7">
         <v>2008</v>
@@ -17345,7 +17365,7 @@
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B142" s="7">
         <v>96.02</v>
@@ -17364,7 +17384,7 @@
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M142" s="7">
         <v>2008</v>
@@ -17384,7 +17404,7 @@
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B143" s="7">
         <v>91.95</v>
@@ -17403,7 +17423,7 @@
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M143" s="7">
         <v>2008</v>
@@ -19760,8 +19780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView topLeftCell="A366" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A7BD1-A955-5949-B83F-C7FAC78B91A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8F682-1501-2147-82AD-DE3A8EE34C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="能源(Energy Sources)" sheetId="1" r:id="rId1"/>
@@ -11518,8 +11518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -19780,7 +19780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -37261,6 +37261,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -37386,15 +37395,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -37404,6 +37404,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37421,14 +37429,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
   <ds:schemaRefs>

--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8F682-1501-2147-82AD-DE3A8EE34C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CFF619-512A-1148-90C1-D439C1D87F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,30 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="1226">
   <si>
     <t>材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10918,6 +10896,9 @@
   </si>
   <si>
     <t>无烟煤</t>
+  </si>
+  <si>
+    <t>天然气凝液(NGL Natural Gas Condensate)</t>
   </si>
 </sst>
 </file>
@@ -11518,8 +11499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12180,9 +12161,8 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="16">
-      <c r="A15" s="15" t="e" cm="1">
-        <f t="array" aca="1" ref="A15" ca="1">A14天然气凝液(NGL Natural Gas Condensate)</f>
-        <v>#NAME?</v>
+      <c r="A15" s="15" t="s">
+        <v>1225</v>
       </c>
       <c r="B15" s="7">
         <v>61.81</v>
@@ -19780,7 +19760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -37261,6 +37241,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -37269,7 +37257,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -37395,15 +37383,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -37411,7 +37401,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37427,14 +37417,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CFF619-512A-1148-90C1-D439C1D87F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07529B9-DB0F-1040-8C63-CEE29FCBE8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="能源(Energy Sources)" sheetId="1" r:id="rId1"/>
@@ -11499,8 +11499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A20" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -19760,8 +19760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="111" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -34123,7 +34123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969F157F-BD19-43AE-91A0-1CD28F96EDBC}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -37241,23 +37241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -37383,25 +37366,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37417,4 +37399,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA7EE9-1257-704B-A1D2-397754BD95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A924DC7-5D3B-6C41-89AB-8B80BF518DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="能源(Energy Sources)" sheetId="1" r:id="rId1"/>
@@ -5565,7 +5565,7 @@
     <t>热传导W/(m·K)</t>
   </si>
   <si>
-    <t>q</t>
+    <t>普通硅酸盐水泥(市场平均)(Portland Cement (market average))</t>
   </si>
 </sst>
 </file>
@@ -13297,8 +13297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:S425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -31132,6 +31132,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -31257,24 +31274,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31290,22 +31308,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A924DC7-5D3B-6C41-89AB-8B80BF518DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02EC4D0-7FFB-4444-9270-F78CE3D96E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13297,8 +13297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:S425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13362,7 +13362,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17">
+    <row r="2" spans="1:14" ht="18">
       <c r="A2" s="3" t="s">
         <v>1221</v>
       </c>
@@ -13376,10 +13376,10 @@
         <v>3.15</v>
       </c>
       <c r="E2" s="3">
-        <v>735</v>
+        <v>2315.25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="17">
+    <row r="3" spans="1:14" ht="18">
       <c r="A3" s="3" t="s">
         <v>1049</v>
       </c>
@@ -13414,10 +13414,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E3" s="3">
-        <v>295</v>
+        <v>678.5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -13438,7 +13438,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="17">
+    <row r="4" spans="1:14" ht="18">
       <c r="A4" s="3" t="s">
         <v>1050</v>
       </c>
@@ -13452,10 +13452,10 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="3">
-        <v>385</v>
+        <v>924</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="17">
+    <row r="5" spans="1:14" ht="18">
       <c r="A5" s="3" t="s">
         <v>1051</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>1190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="17">
+    <row r="6" spans="1:14" ht="18">
       <c r="A6" s="3" t="s">
         <v>1048</v>
       </c>
@@ -13528,10 +13528,10 @@
         <v>2.21</v>
       </c>
       <c r="E6" s="3">
-        <v>747</v>
+        <v>2975</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="17">
+    <row r="7" spans="1:14" ht="18">
       <c r="A7" s="3" t="s">
         <v>1052</v>
       </c>
@@ -13566,10 +13566,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="E7" s="3">
-        <v>32.799999999999997</v>
+        <v>83.64</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="17">
+    <row r="8" spans="1:14" ht="18">
       <c r="A8" s="3" t="s">
         <v>1047</v>
       </c>
@@ -13604,10 +13604,10 @@
         <v>1.5</v>
       </c>
       <c r="E8" s="3">
-        <v>2.5099999999999998</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="17">
+    <row r="9" spans="1:14" ht="18">
       <c r="A9" s="3" t="s">
         <v>1046</v>
       </c>
@@ -13642,10 +13642,10 @@
         <v>1.75</v>
       </c>
       <c r="E9" s="3">
-        <v>2.1800000000000002</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="17">
+    <row r="10" spans="1:14" ht="18">
       <c r="A10" s="3" t="s">
         <v>1053</v>
       </c>
@@ -13680,10 +13680,10 @@
         <v>2.8</v>
       </c>
       <c r="E10" s="3">
-        <v>5.08</v>
+        <v>14.224</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="17">
+    <row r="11" spans="1:14" ht="18">
       <c r="A11" s="3" t="s">
         <v>1054</v>
       </c>
@@ -13718,10 +13718,10 @@
         <v>2.1</v>
       </c>
       <c r="E11" s="3">
-        <v>2.69</v>
+        <v>5.649</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>

--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02EC4D0-7FFB-4444-9270-F78CE3D96E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A714C-843B-D740-8A52-72AA5A790C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A714C-843B-D740-8A52-72AA5A790C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7CA20E-B567-684F-BCE0-EE714A021FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="1221">
   <si>
     <t>材料</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4405,7 +4405,336 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>e/kg</t>
+      <t>e/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>姜金龙,徐金城,侯尚林,刘延君,戴剑峰.共生矿石生产电解镍/铜的生命周期评价研究 [J]. 环境科学学报, 2005, 11:142-146.</t>
+  </si>
+  <si>
+    <t>高峰.生命周期评价研究及其在中国镁工业中的应用 [D]. 北京:北京工业大学, 2008.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>道路交通（货运）平均
+（Road traffic (freight)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>道路交通（货运）
+（Road traffic (freight)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重型货车
+（Heavy goods vehicle）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千克二氧化碳当量/(吨·千米)
+（kgCO2-eq/( t·km)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中型货车
+（Medium goods vehicle）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轻型货车
+（Light goods vehicle）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微型货车
+（Minivan）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>航空（货运）平均
+（Air (cargo)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>航空（货运）
+（Air (cargo)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超大型飞机
+（Very-Large aircraft）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大型飞机
+（Large aircraft）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中型飞机
+（Medium-sized aircraft）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小型飞机
+（Small plane）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁路（货运）平均
+（Railway (freight)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内燃机列车
+（Internal combustion engine train）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁路（货运）
+（Railway (freight)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水运（货运）平均
+（Water transportation (freight)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水运（货运）
+（Water transportation (freight)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杂货船
+（General cargo ship）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集装箱船
+（Container ship）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>干散货船
+（Dry bulk carrier）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多用途船
+（Multi-Purpose vessel）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>住宅电梯（载重1000公斤）
+（Residential elevator (load 1000 kg)）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千克二氧化碳当量/层
+（kgCO2-eq/floor）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电梯、自动扶梯及升降机
+（Elevators, escalators and lifts）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动扶梯
+(Escalators)</t>
     </r>
   </si>
   <si>
@@ -4431,8 +4760,760 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>e/t</t>
+      <t>/TJ</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>kg CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/KW*h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kg CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kg CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>千克二氧化碳当量/立方米
+（kg CO2-eq/Nm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[1] 侯萍,王洪涛,张浩,范辞冬,黄娜.用于组织和产品碳足迹的中国电力温室气体排放因子 [J]. 中国环境科学, 2012,32(06):961-967;
+[2] 白宗庆,白进,李文.焦炉煤气综合利用及CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减排潜力分析 [J]. 洁净煤技术, 2016,22(01):90-94;
+[3] 国家发展改革委办公厅.《中国煤炭生产企业温室气体排放核算方法与报告指南》.2014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吨二氧化碳当量/吨
+(t CO2-eq/ t)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石油焦
+（Petroleum Coke）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[1] 冯超,朱海玲,徐志强.基于EIO LCA的铁矿石采选温室气体排放强度分析 [J]. 中国矿业, 2017,026(003):103-106,111；
+[2] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>world steel association. CO2 Data Collection User Guide, version 10;
+[2] 刘宏强,付建勋,刘思雨,谢欣悦,杨笑楹.钢铁生产过程二氧化碳排放计算方法与实践 [J]. 钢铁, 2016,51(04):74-82；
+[3] 万腾方, 戴方钦, 雷体新.基于生命周期评价方法的武钢钢铁产品环境影响评估 [J]. 工业安全与环保, 2018,44(02):72-76.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吨二氧化碳当量/吨
+（t CO2-eq/ t）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国家发展改革委办公厅.《省级温室气体清单编制指南（试行）》(R).2011;[2]蔡博峰, 曹东, 刘兰翠,等.中国石灰生产和能源消耗分析[J].环境工程,2012,(01):124-127+131.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.3 to 2.8 g/cm³</t>
+  </si>
+  <si>
+    <t>1.4 to 1.6 g/cm³</t>
+  </si>
+  <si>
+    <t>1.6 to 2.6 g/cm³</t>
+  </si>
+  <si>
+    <t>碎石(d=10mm~30mm)(Crushed Stone)</t>
+  </si>
+  <si>
+    <t>砂(f=1.6~3.0)(Sand)</t>
+  </si>
+  <si>
+    <t>消石灰(熟石灰、氢氧化钙)(Hydrated Lime/Calcium Hydroxide)</t>
+  </si>
+  <si>
+    <t>C30混凝土(C30 Concrete)</t>
+  </si>
+  <si>
+    <t>C50混凝土(C50 Concrete)</t>
+  </si>
+  <si>
+    <t>石灰生产(市场平均)(Lime Production, market average)</t>
+  </si>
+  <si>
+    <t>天然石膏(Natural Gypsum)</t>
+  </si>
+  <si>
+    <t>页岩石(Shale Rock)</t>
+  </si>
+  <si>
+    <t>黏土(Clay)</t>
+  </si>
+  <si>
+    <t>混凝土砖(240mmX115mmX90mm)(Concrete Brick)</t>
+  </si>
+  <si>
+    <t>2.0 to 2.3 g/cm³</t>
+  </si>
+  <si>
+    <t>蒸压粉煤灰砖(240mmX115mmX53mm)(Autoclaved Fly Ash Brick)</t>
+  </si>
+  <si>
+    <t>1.8 to 2.2 g/cm³</t>
+  </si>
+  <si>
+    <t>烧结粉煤灰实心砖(240mmX115mmX53mm，掺入量为 50%)(Sintered Fly Ash Solid Brick)</t>
+  </si>
+  <si>
+    <t>页岩实心砖(240mmX115mmX53mm)(Shale Solid Brick)</t>
+  </si>
+  <si>
+    <t>页岩空心砖(240mmX115mmX53mm)(Shale Hollow Brick)</t>
+  </si>
+  <si>
+    <t>1.2 to 1.6 g/cm³</t>
+  </si>
+  <si>
+    <t>黏土空心砖(240mmX115mmX53mm)(Clay Hollow Brick)</t>
+  </si>
+  <si>
+    <t>煤矸石实心砖(240mmX115mmX53mm，90%掺入量)(Coal Gangue Solid Brick)</t>
+  </si>
+  <si>
+    <t>煤矸石空心砖(240mmX115mmX53mm，90%掺人量)(Coal Gangue Hollow Brick)</t>
+  </si>
+  <si>
+    <t>炼钢生铁(Pig Iron)</t>
+  </si>
+  <si>
+    <t>铸造生铁(Cast Iron)</t>
+  </si>
+  <si>
+    <t>炼钢用铁合金(市场平均)(Ferrous Alloy for Steelmaking, market average)</t>
+  </si>
+  <si>
+    <t>转炉碳钢(Converter Carbon Steel)</t>
+  </si>
+  <si>
+    <t>电炉碳钢(Electric Furnace Carbon Steel)</t>
+  </si>
+  <si>
+    <t>普通碳钢(市场平均)(Ordinary Carbon Steel, market average)</t>
+  </si>
+  <si>
+    <t>热轧碳钢小型型钢(Hot Rolled Carbon Steel Small Section Steel)</t>
+  </si>
+  <si>
+    <t>热轧碳钢中型型钢(Hot Rolled Carbon Steel Medium Section Steel)</t>
+  </si>
+  <si>
+    <t>热轧碳钢大型轨梁(方圆坯、管坯)(Hot Rolled Carbon Steel Large Rail Beams)</t>
+  </si>
+  <si>
+    <t>热轧碳钢大型轨梁(重轨、普通型钢)(Hot Rolled Carbon Steel Large Rail Beams)</t>
+  </si>
+  <si>
+    <t>热轧碳钢中厚板(Hot Rolled Medium and Thick Carbon Steel Plate)</t>
+  </si>
+  <si>
+    <t>热轧碳钢 H钢(Hot Rolled Carbon Steel H-Beams)</t>
+  </si>
+  <si>
+    <t>热轧碳钢宽带钢(Hot Rolled Carbon Steel Wide Strip)</t>
+  </si>
+  <si>
+    <t>热轧碳钢钢筋(Hot Rolled Carbon Steel Reinforcing Bar)</t>
+  </si>
+  <si>
+    <t>热轧碳钢高线材(Hot Rolled Carbon Steel Wire Rod)</t>
+  </si>
+  <si>
+    <t>热轧碳钢棒材(Hot Rolled Carbon Steel Round Bar)</t>
+  </si>
+  <si>
+    <t>螺旋埋弧焊管(Spiral Submerged Arc Welded Pipe)</t>
+  </si>
+  <si>
+    <t>大口径埋弧焊直缝钢管(Large Diameter Submerged Arc Welded Straight Seam Steel Pipe)</t>
+  </si>
+  <si>
+    <t>焊接直缝钢管(Welded Straight Seam Steel Pipe)</t>
+  </si>
+  <si>
+    <t>热轧碳钢无缝钢管(Hot Rolled Carbon Steel Seamless Pipe)</t>
+  </si>
+  <si>
+    <t>冷轧冷拔碳钢无缝钢管(Cold Rolled Cold Drawn Carbon Steel Seamless Pipe)</t>
+  </si>
+  <si>
+    <t>碳钢热镀锌板卷(Hot-Dip Galvanized Carbon Steel Sheet Coil)</t>
+  </si>
+  <si>
+    <t>碳钢电镀锌板卷(Electro-Galvanized Carbon Steel Sheet Coil)</t>
+  </si>
+  <si>
+    <t>碳钢电镀锡板卷(Electro-Galvanized Tin Plated Carbon Steel Sheet Coil)</t>
+  </si>
+  <si>
+    <t>酸洗板卷(Pickled Sheet Coil)</t>
+  </si>
+  <si>
+    <t>冷轧碳钢板卷(Cold Rolled Carbon Steel Sheet Coil)</t>
+  </si>
+  <si>
+    <t>冷硬碳钢板卷(Cold Hardened Carbon Steel Sheet Coil)</t>
+  </si>
+  <si>
+    <t>平板玻璃(Flat Glass)</t>
+  </si>
+  <si>
+    <t>电解铝(全国平均电网电力)(Electrolytic Aluminum)</t>
+  </si>
+  <si>
+    <t>铝板带(Aluminum Sheet Strip)</t>
+  </si>
+  <si>
+    <t>2.6 to 2.8 g/cm³</t>
+  </si>
+  <si>
+    <t>断桥铝合金窗（100%原生铝型材）(Aluminum Alloy Window with 100% Primary Aluminum )</t>
+  </si>
+  <si>
+    <t>断桥铝合金窗（原生铝:再生铝=7:3）(Primary Aluminum:Recycled Aluminum=7:3)</t>
+  </si>
+  <si>
+    <t>铝木复合窗（100%原生铝型材）(Aluminum-Clad Wood Window with 100% Primary Aluminum)</t>
+  </si>
+  <si>
+    <t>铝木复合窗（原生铝:再生铝=7:3）(Primary Aluminum:Recycled Aluminum=7:3)</t>
+  </si>
+  <si>
+    <t>铝塑共挤窗(Aluminum-Plastic Co-Extruded Window)</t>
+  </si>
+  <si>
+    <t>塑钢窗(Plastic Steel Window)</t>
+  </si>
+  <si>
+    <t>无规共聚聚丙烯管(Random Copolymer Polypropylene Pipe)</t>
+  </si>
+  <si>
+    <t>聚乙烯管(Polyethylene Pipe)</t>
+  </si>
+  <si>
+    <t>硬聚氯乙烯管(Hard Polyvinyl Chloride Pipe)</t>
+  </si>
+  <si>
+    <t>聚苯乙烯泡沫板(Polystyrene Foam Board)</t>
+  </si>
+  <si>
+    <t>岩棉板(Rockwool Board)</t>
+  </si>
+  <si>
+    <t>硬泡聚氨酷板(Rigid Polyurethane Foam Board)</t>
+  </si>
+  <si>
+    <t>铝塑复合板(Aluminum-Plastic Composite Panel)</t>
+  </si>
+  <si>
+    <t>铜塑复合板(Copper-Plastic Composite Panel)</t>
+  </si>
+  <si>
+    <t>铜单板(Copper Sheet)</t>
+  </si>
+  <si>
+    <t>普通聚苯乙烯(General Polystyrene)</t>
+  </si>
+  <si>
+    <t>线性低密度聚乙烯(Linear Low-Density Polyethylene)</t>
+  </si>
+  <si>
+    <t>高密度聚乙烯(High-Density Polyethylene)</t>
+  </si>
+  <si>
+    <t>低密度聚乙烯(Low-Density Polyethylene)</t>
+  </si>
+  <si>
+    <t>聚氯乙烯(市场平均)(Polyvinyl Chloride, market average)</t>
+  </si>
+  <si>
+    <t>自来水(Tap Water)</t>
+  </si>
+  <si>
+    <t>水泥(Cement)</t>
+  </si>
+  <si>
+    <t>3.0 to 3.2 g/cm³</t>
+  </si>
+  <si>
+    <t>石灰生产(Lime Production)</t>
+  </si>
+  <si>
+    <t>石灰石消耗（钢铁生产）(Limestone Consumption in Steel Production)</t>
+  </si>
+  <si>
+    <t>白云石消耗（钢铁生产）(Dolomite Consumption in Steel Production)</t>
+  </si>
+  <si>
+    <t>新水(Freshwater)</t>
+  </si>
+  <si>
+    <t>1.0 g/cm³</t>
+  </si>
+  <si>
+    <t>砂子(Sand)</t>
+  </si>
+  <si>
+    <t>碎石(Crushed Stone)</t>
+  </si>
+  <si>
+    <t>再生骨料(Recycled Aggregate)</t>
+  </si>
+  <si>
+    <t>1.0 to 2.5 g/cm³</t>
+  </si>
+  <si>
+    <t>石灰石(分解)(Limestone (Decomposed))</t>
+  </si>
+  <si>
+    <t>白云石(分解)(Dolomite (Decomposed))</t>
+  </si>
+  <si>
+    <t>1.3 to 1.8 g/cm³</t>
+  </si>
+  <si>
+    <t>粉煤灰(Fly Ash)</t>
+  </si>
+  <si>
+    <t>1.8 to 2.8 g/cm³</t>
+  </si>
+  <si>
+    <t>炉渣(Slag)</t>
+  </si>
+  <si>
+    <t>2.8 to 3.2 g/cm³</t>
+  </si>
+  <si>
+    <t>大白粉(Talcum Powder)</t>
+  </si>
+  <si>
+    <t>滑石粉(Soapstone Powder)</t>
+  </si>
+  <si>
+    <t>2.7 to 2.9 g/cm³</t>
+  </si>
+  <si>
+    <t>腻子粉(Putty Powder)</t>
+  </si>
+  <si>
+    <t>1.8 to 2.0 g/cm³</t>
+  </si>
+  <si>
+    <t>生石灰(Quicklime)</t>
+  </si>
+  <si>
+    <t>消石灰(Hydrated Lime)</t>
+  </si>
+  <si>
+    <t>0.9 to 1.3 g/cm³</t>
+  </si>
+  <si>
+    <t>石膏(Gypsum)</t>
+  </si>
+  <si>
+    <t>木材(Wood)</t>
+  </si>
+  <si>
+    <t>0.4 to 1.2 g/cm³</t>
+  </si>
+  <si>
+    <t>刨花板(Particle Board)</t>
+  </si>
+  <si>
+    <t>0.5 to 0.8 g/cm³</t>
+  </si>
+  <si>
+    <t>胶合板(Plywood)</t>
+  </si>
+  <si>
+    <t>0.6 to 0.8 g/cm³</t>
+  </si>
+  <si>
+    <t>原生竹材(Natural Bamboo)</t>
+  </si>
+  <si>
+    <t>0.4 to 0.9 g/cm³</t>
+  </si>
+  <si>
+    <t>重组竹材(Engineered Bamboo)</t>
+  </si>
+  <si>
+    <t>0.6 to 0.9 g/cm³</t>
+  </si>
+  <si>
+    <t>水泥(行业平均)(Cement, Industry Average)</t>
+  </si>
+  <si>
+    <t>水泥熟料52.5MPa(Cement Clinker 52.5MPa)</t>
+  </si>
+  <si>
+    <t>3.0 to 3.3 g/cm³</t>
+  </si>
+  <si>
+    <t>水泥熟料62.5MPa(Cement Clinker 62.5MPa)</t>
+  </si>
+  <si>
+    <t>硅酸盐水泥P·Ⅰ42.5MPa(Portland Cement P·Ⅰ 42.5MPa)</t>
+  </si>
+  <si>
+    <t>硅酸盐水泥P·Ⅰ 52.5MPa(Portland Cement P·Ⅰ 52.5MPa)</t>
+  </si>
+  <si>
+    <t>硅酸盐水泥P·Ⅰ62.5MPa(Portland Cement P·Ⅰ 62.5MPa)</t>
+  </si>
+  <si>
+    <t>硅酸盐水泥P·Ⅱ42.5MPa(Portland Cement P·Ⅱ 42.5MPa)</t>
+  </si>
+  <si>
+    <t>硅酸盐水泥P·Ⅱ52.5MPa(Portland Cement P·Ⅱ 52.5MPa)</t>
+  </si>
+  <si>
+    <t>硅酸盐水泥P·Ⅱ62.5MPa(Portland Cement P·Ⅱ 62.5MPa)</t>
+  </si>
+  <si>
+    <t>普通硅酸盐水泥P·O 42.5MPa(Ordinary Portland Cement P·O 42.5MPa)</t>
+  </si>
+  <si>
+    <t>普通硅酸盐水泥P·O 52.5MPa(Ordinary Portland Cement P·O 52.5MPa)</t>
+  </si>
+  <si>
+    <t>矿渣硅酸盐水泥P·S·A 32.5MPa(Slag Portland Cement P·S·A 32.5MPa)</t>
+  </si>
+  <si>
+    <t>矿渣硅酸盐水泥P·S·A 42.5MPa(Slag Portland Cement P·S·A 42.5MPa)</t>
+  </si>
+  <si>
+    <t>矿渣硅酸盐水泥P·S·B 32.5MPa(Slag Portland Cement P·S·B 32.5MPa)</t>
+  </si>
+  <si>
+    <t>火山灰质硅酸盐水泥P·P 42.5MPa(Volcanic Ash Portland Cement P·P 42.5MPa)</t>
+  </si>
+  <si>
+    <t>火山灰质硅酸盐水泥P·P 32.5MPa(Volcanic Ash Portland Cement P·P 32.5MPa)</t>
+  </si>
+  <si>
+    <t>粉煤灰硅酸盐水泥P·F 32.5MPa(Fly Ash Portland Cement P·F 32.5MPa)</t>
+  </si>
+  <si>
+    <t>粉煤灰硅酸盐水泥P·F 42.5MPa(Fly Ash Portland Cement P·F 42.5MPa)</t>
+  </si>
+  <si>
+    <t>复合硅酸盐水泥P·C 32.5MPa(Composite Portland Cement P·C 32.5MPa)</t>
+  </si>
+  <si>
+    <t>复合硅酸盐水泥P·C 42.5MPa(Composite Portland Cement P·C 42.5MPa)</t>
+  </si>
+  <si>
+    <t>砌筑混合砂浆M2.5(Masonry Mixed Mortar M2.5)</t>
+  </si>
+  <si>
+    <t>砌筑混合砂浆M5(Masonry Mixed Mortar M5)</t>
+  </si>
+  <si>
+    <t>砌筑混合砂浆M7.5(Masonry Mixed Mortar M7.5)</t>
+  </si>
+  <si>
+    <t>砌筑混合砂浆M10(Masonry Mixed Mortar M10)</t>
+  </si>
+  <si>
+    <t>砌筑水泥砂浆M2.5(Cement Mortar M2.5)</t>
+  </si>
+  <si>
+    <t>砌筑水泥砂浆M5(Cement Mortar M5)</t>
+  </si>
+  <si>
+    <t>砌筑水泥砂浆M7.5(Cement Mortar M7.5)</t>
+  </si>
+  <si>
+    <t>砌筑水泥砂浆M10(Cement Mortar M10)</t>
+  </si>
+  <si>
+    <t>砌筑水泥砂浆M15(Cement Mortar M15)</t>
+  </si>
+  <si>
+    <t>2.0 to 2.2 g/cm³</t>
+  </si>
+  <si>
+    <t>抹灰水泥砂浆1：2(Rendering Cement Mortar 1:2)</t>
+  </si>
+  <si>
+    <t>抹灰水泥砂浆1：3(Rendering Cement Mortar 1:3)</t>
+  </si>
+  <si>
+    <t>抹灰混合砂浆1：1：6(Rendering Mixed Mortar 1:1:6)</t>
+  </si>
+  <si>
+    <t>抹灰石灰砂浆1∶2.5(Rendering Lime Mortar 1:2.5)</t>
+  </si>
+  <si>
+    <t>抹灰石灰砂浆1：3(Rendering Lime Mortar 1:3)</t>
+  </si>
+  <si>
+    <t>1.6 to 1.8 g/cm³</t>
+  </si>
+  <si>
+    <t>抹灰石膏砂浆1：3(Rendering Gypsum Mortar 1:3)</t>
+  </si>
+  <si>
+    <t>混凝土C10(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C15(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C20(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C25(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C30(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C35(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C40(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C45(Concrete)</t>
+  </si>
+  <si>
+    <t>混凝土C50(Concrete)</t>
+  </si>
+  <si>
+    <t>2.3 to 2.5 g/cm³</t>
+  </si>
+  <si>
+    <t>超流态混凝土C25(Self-Compacting Concrete C25)</t>
+  </si>
+  <si>
+    <t>超流态混凝土C30(Self-Compacting Concrete C30)</t>
+  </si>
+  <si>
+    <t>黏土实心砖(Clay Solid Brick)</t>
+  </si>
+  <si>
+    <t>烧结粉煤灰实心砖(50%掺入量)(Sintered Fly Ash Solid Brick)</t>
+  </si>
+  <si>
+    <t>烧结多孔(空心)砖(Sintered Porous (Hollow) Brick)</t>
+  </si>
+  <si>
+    <t>1.2 to 1.8 g/cm³</t>
+  </si>
+  <si>
+    <t>页岩实心砖(Shale Solid Brick)</t>
+  </si>
+  <si>
+    <t>页岩空心砖(Shale Hollow Brick)</t>
+  </si>
+  <si>
+    <t>煤酐石实心砖(90%掺人量)(Coal Gangue Solid Brick)</t>
+  </si>
+  <si>
+    <t>煤研石空心砖(90%掺人量)(Coal Gangue Hollow Brick)</t>
+  </si>
+  <si>
+    <t>混凝土砖(Concrete Brick)</t>
+  </si>
+  <si>
+    <t>混凝土小型空心砌块(Concrete Small Hollow Block)</t>
+  </si>
+  <si>
+    <t>粉煤灰小型空心砌块(Fly Ash Small Hollow Block)</t>
+  </si>
+  <si>
+    <t>加气混凝土砌块(Autoclaved Aerated Concrete Block)</t>
+  </si>
+  <si>
+    <t>0.4 to 0.8 g/cm³</t>
+  </si>
+  <si>
+    <t>密度g/cm³</t>
+  </si>
+  <si>
+    <t>强度MPa</t>
+  </si>
+  <si>
+    <t>热传导W/(m·K)</t>
+  </si>
+  <si>
+    <t>普通硅酸盐水泥(市场平均)(Portland Cement (market average))</t>
   </si>
   <si>
     <r>
@@ -4470,1102 +5551,16 @@
       </rPr>
       <t>3</t>
     </r>
-  </si>
-  <si>
-    <t>姜金龙,徐金城,侯尚林,刘延君,戴剑峰.共生矿石生产电解镍/铜的生命周期评价研究 [J]. 环境科学学报, 2005, 11:142-146.</t>
-  </si>
-  <si>
-    <t>高峰.生命周期评价研究及其在中国镁工业中的应用 [D]. 北京:北京工业大学, 2008.</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>道路交通（货运）平均
-（Road traffic (freight)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>道路交通（货运）
-（Road traffic (freight)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>重型货车
-（Heavy goods vehicle）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>千克二氧化碳当量/(吨·千米)
-（kgCO2-eq/( t·km)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中型货车
-（Medium goods vehicle）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轻型货车
-（Light goods vehicle）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>微型货车
-（Minivan）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>航空（货运）平均
-（Air (cargo)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>航空（货运）
-（Air (cargo)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>超大型飞机
-（Very-Large aircraft）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大型飞机
-（Large aircraft）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中型飞机
-（Medium-sized aircraft）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小型飞机
-（Small plane）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>铁路（货运）平均
-（Railway (freight)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>内燃机列车
-（Internal combustion engine train）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>铁路（货运）
-（Railway (freight)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水运（货运）平均
-（Water transportation (freight)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水运（货运）
-（Water transportation (freight)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>杂货船
-（General cargo ship）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>集装箱船
-（Container ship）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>干散货船
-（Dry bulk carrier）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多用途船
-（Multi-Purpose vessel）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>住宅电梯（载重1000公斤）
-（Residential elevator (load 1000 kg)）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>千克二氧化碳当量/层
-（kgCO2-eq/floor）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>电梯、自动扶梯及升降机
-（Elevators, escalators and lifts）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>自动扶梯
-(Escalators)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/TJ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kg CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/KW*h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kg CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kg CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>千克二氧化碳当量/立方米
-（kg CO2-eq/Nm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[1] 侯萍,王洪涛,张浩,范辞冬,黄娜.用于组织和产品碳足迹的中国电力温室气体排放因子 [J]. 中国环境科学, 2012,32(06):961-967;
-[2] 白宗庆,白进,李文.焦炉煤气综合利用及CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>减排潜力分析 [J]. 洁净煤技术, 2016,22(01):90-94;
-[3] 国家发展改革委办公厅.《中国煤炭生产企业温室气体排放核算方法与报告指南》.2014</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吨二氧化碳当量/吨
-(t CO2-eq/ t)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>石油焦
-（Petroleum Coke）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[1] 冯超,朱海玲,徐志强.基于EIO LCA的铁矿石采选温室气体排放强度分析 [J]. 中国矿业, 2017,026(003):103-106,111；
-[2] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>world steel association. CO2 Data Collection User Guide, version 10;
-[2] 刘宏强,付建勋,刘思雨,谢欣悦,杨笑楹.钢铁生产过程二氧化碳排放计算方法与实践 [J]. 钢铁, 2016,51(04):74-82；
-[3] 万腾方, 戴方钦, 雷体新.基于生命周期评价方法的武钢钢铁产品环境影响评估 [J]. 工业安全与环保, 2018,44(02):72-76.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吨二氧化碳当量/吨
-（t CO2-eq/ t）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>国家发展改革委办公厅.《省级温室气体清单编制指南（试行）》(R).2011;[2]蔡博峰, 曹东, 刘兰翠,等.中国石灰生产和能源消耗分析[J].环境工程,2012,(01):124-127+131.</t>
-    </r>
-  </si>
-  <si>
-    <t>2.3 to 2.8 g/cm³</t>
-  </si>
-  <si>
-    <t>1.4 to 1.6 g/cm³</t>
-  </si>
-  <si>
-    <t>1.6 to 2.6 g/cm³</t>
-  </si>
-  <si>
-    <t>碎石(d=10mm~30mm)(Crushed Stone)</t>
-  </si>
-  <si>
-    <t>砂(f=1.6~3.0)(Sand)</t>
-  </si>
-  <si>
-    <t>消石灰(熟石灰、氢氧化钙)(Hydrated Lime/Calcium Hydroxide)</t>
-  </si>
-  <si>
-    <t>C30混凝土(C30 Concrete)</t>
-  </si>
-  <si>
-    <t>C50混凝土(C50 Concrete)</t>
-  </si>
-  <si>
-    <t>石灰生产(市场平均)(Lime Production, market average)</t>
-  </si>
-  <si>
-    <t>天然石膏(Natural Gypsum)</t>
-  </si>
-  <si>
-    <t>页岩石(Shale Rock)</t>
-  </si>
-  <si>
-    <t>黏土(Clay)</t>
-  </si>
-  <si>
-    <t>混凝土砖(240mmX115mmX90mm)(Concrete Brick)</t>
-  </si>
-  <si>
-    <t>2.0 to 2.3 g/cm³</t>
-  </si>
-  <si>
-    <t>蒸压粉煤灰砖(240mmX115mmX53mm)(Autoclaved Fly Ash Brick)</t>
-  </si>
-  <si>
-    <t>1.8 to 2.2 g/cm³</t>
-  </si>
-  <si>
-    <t>烧结粉煤灰实心砖(240mmX115mmX53mm，掺入量为 50%)(Sintered Fly Ash Solid Brick)</t>
-  </si>
-  <si>
-    <t>页岩实心砖(240mmX115mmX53mm)(Shale Solid Brick)</t>
-  </si>
-  <si>
-    <t>页岩空心砖(240mmX115mmX53mm)(Shale Hollow Brick)</t>
-  </si>
-  <si>
-    <t>1.2 to 1.6 g/cm³</t>
-  </si>
-  <si>
-    <t>黏土空心砖(240mmX115mmX53mm)(Clay Hollow Brick)</t>
-  </si>
-  <si>
-    <t>煤矸石实心砖(240mmX115mmX53mm，90%掺入量)(Coal Gangue Solid Brick)</t>
-  </si>
-  <si>
-    <t>煤矸石空心砖(240mmX115mmX53mm，90%掺人量)(Coal Gangue Hollow Brick)</t>
-  </si>
-  <si>
-    <t>炼钢生铁(Pig Iron)</t>
-  </si>
-  <si>
-    <t>铸造生铁(Cast Iron)</t>
-  </si>
-  <si>
-    <t>炼钢用铁合金(市场平均)(Ferrous Alloy for Steelmaking, market average)</t>
-  </si>
-  <si>
-    <t>转炉碳钢(Converter Carbon Steel)</t>
-  </si>
-  <si>
-    <t>电炉碳钢(Electric Furnace Carbon Steel)</t>
-  </si>
-  <si>
-    <t>普通碳钢(市场平均)(Ordinary Carbon Steel, market average)</t>
-  </si>
-  <si>
-    <t>热轧碳钢小型型钢(Hot Rolled Carbon Steel Small Section Steel)</t>
-  </si>
-  <si>
-    <t>热轧碳钢中型型钢(Hot Rolled Carbon Steel Medium Section Steel)</t>
-  </si>
-  <si>
-    <t>热轧碳钢大型轨梁(方圆坯、管坯)(Hot Rolled Carbon Steel Large Rail Beams)</t>
-  </si>
-  <si>
-    <t>热轧碳钢大型轨梁(重轨、普通型钢)(Hot Rolled Carbon Steel Large Rail Beams)</t>
-  </si>
-  <si>
-    <t>热轧碳钢中厚板(Hot Rolled Medium and Thick Carbon Steel Plate)</t>
-  </si>
-  <si>
-    <t>热轧碳钢 H钢(Hot Rolled Carbon Steel H-Beams)</t>
-  </si>
-  <si>
-    <t>热轧碳钢宽带钢(Hot Rolled Carbon Steel Wide Strip)</t>
-  </si>
-  <si>
-    <t>热轧碳钢钢筋(Hot Rolled Carbon Steel Reinforcing Bar)</t>
-  </si>
-  <si>
-    <t>热轧碳钢高线材(Hot Rolled Carbon Steel Wire Rod)</t>
-  </si>
-  <si>
-    <t>热轧碳钢棒材(Hot Rolled Carbon Steel Round Bar)</t>
-  </si>
-  <si>
-    <t>螺旋埋弧焊管(Spiral Submerged Arc Welded Pipe)</t>
-  </si>
-  <si>
-    <t>大口径埋弧焊直缝钢管(Large Diameter Submerged Arc Welded Straight Seam Steel Pipe)</t>
-  </si>
-  <si>
-    <t>焊接直缝钢管(Welded Straight Seam Steel Pipe)</t>
-  </si>
-  <si>
-    <t>热轧碳钢无缝钢管(Hot Rolled Carbon Steel Seamless Pipe)</t>
-  </si>
-  <si>
-    <t>冷轧冷拔碳钢无缝钢管(Cold Rolled Cold Drawn Carbon Steel Seamless Pipe)</t>
-  </si>
-  <si>
-    <t>碳钢热镀锌板卷(Hot-Dip Galvanized Carbon Steel Sheet Coil)</t>
-  </si>
-  <si>
-    <t>碳钢电镀锌板卷(Electro-Galvanized Carbon Steel Sheet Coil)</t>
-  </si>
-  <si>
-    <t>碳钢电镀锡板卷(Electro-Galvanized Tin Plated Carbon Steel Sheet Coil)</t>
-  </si>
-  <si>
-    <t>酸洗板卷(Pickled Sheet Coil)</t>
-  </si>
-  <si>
-    <t>冷轧碳钢板卷(Cold Rolled Carbon Steel Sheet Coil)</t>
-  </si>
-  <si>
-    <t>冷硬碳钢板卷(Cold Hardened Carbon Steel Sheet Coil)</t>
-  </si>
-  <si>
-    <t>平板玻璃(Flat Glass)</t>
-  </si>
-  <si>
-    <t>电解铝(全国平均电网电力)(Electrolytic Aluminum)</t>
-  </si>
-  <si>
-    <t>铝板带(Aluminum Sheet Strip)</t>
-  </si>
-  <si>
-    <t>2.6 to 2.8 g/cm³</t>
-  </si>
-  <si>
-    <t>断桥铝合金窗（100%原生铝型材）(Aluminum Alloy Window with 100% Primary Aluminum )</t>
-  </si>
-  <si>
-    <t>断桥铝合金窗（原生铝:再生铝=7:3）(Primary Aluminum:Recycled Aluminum=7:3)</t>
-  </si>
-  <si>
-    <t>铝木复合窗（100%原生铝型材）(Aluminum-Clad Wood Window with 100% Primary Aluminum)</t>
-  </si>
-  <si>
-    <t>铝木复合窗（原生铝:再生铝=7:3）(Primary Aluminum:Recycled Aluminum=7:3)</t>
-  </si>
-  <si>
-    <t>铝塑共挤窗(Aluminum-Plastic Co-Extruded Window)</t>
-  </si>
-  <si>
-    <t>塑钢窗(Plastic Steel Window)</t>
-  </si>
-  <si>
-    <t>无规共聚聚丙烯管(Random Copolymer Polypropylene Pipe)</t>
-  </si>
-  <si>
-    <t>聚乙烯管(Polyethylene Pipe)</t>
-  </si>
-  <si>
-    <t>硬聚氯乙烯管(Hard Polyvinyl Chloride Pipe)</t>
-  </si>
-  <si>
-    <t>聚苯乙烯泡沫板(Polystyrene Foam Board)</t>
-  </si>
-  <si>
-    <t>岩棉板(Rockwool Board)</t>
-  </si>
-  <si>
-    <t>硬泡聚氨酷板(Rigid Polyurethane Foam Board)</t>
-  </si>
-  <si>
-    <t>铝塑复合板(Aluminum-Plastic Composite Panel)</t>
-  </si>
-  <si>
-    <t>铜塑复合板(Copper-Plastic Composite Panel)</t>
-  </si>
-  <si>
-    <t>铜单板(Copper Sheet)</t>
-  </si>
-  <si>
-    <t>普通聚苯乙烯(General Polystyrene)</t>
-  </si>
-  <si>
-    <t>线性低密度聚乙烯(Linear Low-Density Polyethylene)</t>
-  </si>
-  <si>
-    <t>高密度聚乙烯(High-Density Polyethylene)</t>
-  </si>
-  <si>
-    <t>低密度聚乙烯(Low-Density Polyethylene)</t>
-  </si>
-  <si>
-    <t>聚氯乙烯(市场平均)(Polyvinyl Chloride, market average)</t>
-  </si>
-  <si>
-    <t>自来水(Tap Water)</t>
-  </si>
-  <si>
-    <t>水泥(Cement)</t>
-  </si>
-  <si>
-    <t>3.0 to 3.2 g/cm³</t>
-  </si>
-  <si>
-    <t>石灰生产(Lime Production)</t>
-  </si>
-  <si>
-    <t>石灰石消耗（钢铁生产）(Limestone Consumption in Steel Production)</t>
-  </si>
-  <si>
-    <t>白云石消耗（钢铁生产）(Dolomite Consumption in Steel Production)</t>
-  </si>
-  <si>
-    <t>新水(Freshwater)</t>
-  </si>
-  <si>
-    <t>1.0 g/cm³</t>
-  </si>
-  <si>
-    <t>砂子(Sand)</t>
-  </si>
-  <si>
-    <t>碎石(Crushed Stone)</t>
-  </si>
-  <si>
-    <t>再生骨料(Recycled Aggregate)</t>
-  </si>
-  <si>
-    <t>1.0 to 2.5 g/cm³</t>
-  </si>
-  <si>
-    <t>石灰石(分解)(Limestone (Decomposed))</t>
-  </si>
-  <si>
-    <t>白云石(分解)(Dolomite (Decomposed))</t>
-  </si>
-  <si>
-    <t>1.3 to 1.8 g/cm³</t>
-  </si>
-  <si>
-    <t>粉煤灰(Fly Ash)</t>
-  </si>
-  <si>
-    <t>1.8 to 2.8 g/cm³</t>
-  </si>
-  <si>
-    <t>炉渣(Slag)</t>
-  </si>
-  <si>
-    <t>2.8 to 3.2 g/cm³</t>
-  </si>
-  <si>
-    <t>大白粉(Talcum Powder)</t>
-  </si>
-  <si>
-    <t>滑石粉(Soapstone Powder)</t>
-  </si>
-  <si>
-    <t>2.7 to 2.9 g/cm³</t>
-  </si>
-  <si>
-    <t>腻子粉(Putty Powder)</t>
-  </si>
-  <si>
-    <t>1.8 to 2.0 g/cm³</t>
-  </si>
-  <si>
-    <t>生石灰(Quicklime)</t>
-  </si>
-  <si>
-    <t>消石灰(Hydrated Lime)</t>
-  </si>
-  <si>
-    <t>0.9 to 1.3 g/cm³</t>
-  </si>
-  <si>
-    <t>石膏(Gypsum)</t>
-  </si>
-  <si>
-    <t>木材(Wood)</t>
-  </si>
-  <si>
-    <t>0.4 to 1.2 g/cm³</t>
-  </si>
-  <si>
-    <t>刨花板(Particle Board)</t>
-  </si>
-  <si>
-    <t>0.5 to 0.8 g/cm³</t>
-  </si>
-  <si>
-    <t>胶合板(Plywood)</t>
-  </si>
-  <si>
-    <t>0.6 to 0.8 g/cm³</t>
-  </si>
-  <si>
-    <t>原生竹材(Natural Bamboo)</t>
-  </si>
-  <si>
-    <t>0.4 to 0.9 g/cm³</t>
-  </si>
-  <si>
-    <t>重组竹材(Engineered Bamboo)</t>
-  </si>
-  <si>
-    <t>0.6 to 0.9 g/cm³</t>
-  </si>
-  <si>
-    <t>水泥(行业平均)(Cement, Industry Average)</t>
-  </si>
-  <si>
-    <t>水泥熟料52.5MPa(Cement Clinker 52.5MPa)</t>
-  </si>
-  <si>
-    <t>3.0 to 3.3 g/cm³</t>
-  </si>
-  <si>
-    <t>水泥熟料62.5MPa(Cement Clinker 62.5MPa)</t>
-  </si>
-  <si>
-    <t>硅酸盐水泥P·Ⅰ42.5MPa(Portland Cement P·Ⅰ 42.5MPa)</t>
-  </si>
-  <si>
-    <t>硅酸盐水泥P·Ⅰ 52.5MPa(Portland Cement P·Ⅰ 52.5MPa)</t>
-  </si>
-  <si>
-    <t>硅酸盐水泥P·Ⅰ62.5MPa(Portland Cement P·Ⅰ 62.5MPa)</t>
-  </si>
-  <si>
-    <t>硅酸盐水泥P·Ⅱ42.5MPa(Portland Cement P·Ⅱ 42.5MPa)</t>
-  </si>
-  <si>
-    <t>硅酸盐水泥P·Ⅱ52.5MPa(Portland Cement P·Ⅱ 52.5MPa)</t>
-  </si>
-  <si>
-    <t>硅酸盐水泥P·Ⅱ62.5MPa(Portland Cement P·Ⅱ 62.5MPa)</t>
-  </si>
-  <si>
-    <t>普通硅酸盐水泥P·O 42.5MPa(Ordinary Portland Cement P·O 42.5MPa)</t>
-  </si>
-  <si>
-    <t>普通硅酸盐水泥P·O 52.5MPa(Ordinary Portland Cement P·O 52.5MPa)</t>
-  </si>
-  <si>
-    <t>矿渣硅酸盐水泥P·S·A 32.5MPa(Slag Portland Cement P·S·A 32.5MPa)</t>
-  </si>
-  <si>
-    <t>矿渣硅酸盐水泥P·S·A 42.5MPa(Slag Portland Cement P·S·A 42.5MPa)</t>
-  </si>
-  <si>
-    <t>矿渣硅酸盐水泥P·S·B 32.5MPa(Slag Portland Cement P·S·B 32.5MPa)</t>
-  </si>
-  <si>
-    <t>火山灰质硅酸盐水泥P·P 42.5MPa(Volcanic Ash Portland Cement P·P 42.5MPa)</t>
-  </si>
-  <si>
-    <t>火山灰质硅酸盐水泥P·P 32.5MPa(Volcanic Ash Portland Cement P·P 32.5MPa)</t>
-  </si>
-  <si>
-    <t>粉煤灰硅酸盐水泥P·F 32.5MPa(Fly Ash Portland Cement P·F 32.5MPa)</t>
-  </si>
-  <si>
-    <t>粉煤灰硅酸盐水泥P·F 42.5MPa(Fly Ash Portland Cement P·F 42.5MPa)</t>
-  </si>
-  <si>
-    <t>复合硅酸盐水泥P·C 32.5MPa(Composite Portland Cement P·C 32.5MPa)</t>
-  </si>
-  <si>
-    <t>复合硅酸盐水泥P·C 42.5MPa(Composite Portland Cement P·C 42.5MPa)</t>
-  </si>
-  <si>
-    <t>砌筑混合砂浆M2.5(Masonry Mixed Mortar M2.5)</t>
-  </si>
-  <si>
-    <t>砌筑混合砂浆M5(Masonry Mixed Mortar M5)</t>
-  </si>
-  <si>
-    <t>砌筑混合砂浆M7.5(Masonry Mixed Mortar M7.5)</t>
-  </si>
-  <si>
-    <t>砌筑混合砂浆M10(Masonry Mixed Mortar M10)</t>
-  </si>
-  <si>
-    <t>砌筑水泥砂浆M2.5(Cement Mortar M2.5)</t>
-  </si>
-  <si>
-    <t>砌筑水泥砂浆M5(Cement Mortar M5)</t>
-  </si>
-  <si>
-    <t>砌筑水泥砂浆M7.5(Cement Mortar M7.5)</t>
-  </si>
-  <si>
-    <t>砌筑水泥砂浆M10(Cement Mortar M10)</t>
-  </si>
-  <si>
-    <t>砌筑水泥砂浆M15(Cement Mortar M15)</t>
-  </si>
-  <si>
-    <t>2.0 to 2.2 g/cm³</t>
-  </si>
-  <si>
-    <t>抹灰水泥砂浆1：2(Rendering Cement Mortar 1:2)</t>
-  </si>
-  <si>
-    <t>抹灰水泥砂浆1：3(Rendering Cement Mortar 1:3)</t>
-  </si>
-  <si>
-    <t>抹灰混合砂浆1：1：6(Rendering Mixed Mortar 1:1:6)</t>
-  </si>
-  <si>
-    <t>抹灰石灰砂浆1∶2.5(Rendering Lime Mortar 1:2.5)</t>
-  </si>
-  <si>
-    <t>抹灰石灰砂浆1：3(Rendering Lime Mortar 1:3)</t>
-  </si>
-  <si>
-    <t>1.6 to 1.8 g/cm³</t>
-  </si>
-  <si>
-    <t>抹灰石膏砂浆1：3(Rendering Gypsum Mortar 1:3)</t>
-  </si>
-  <si>
-    <t>混凝土C10(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C15(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C20(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C25(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C30(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C35(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C40(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C45(Concrete)</t>
-  </si>
-  <si>
-    <t>混凝土C50(Concrete)</t>
-  </si>
-  <si>
-    <t>2.3 to 2.5 g/cm³</t>
-  </si>
-  <si>
-    <t>超流态混凝土C25(Self-Compacting Concrete C25)</t>
-  </si>
-  <si>
-    <t>超流态混凝土C30(Self-Compacting Concrete C30)</t>
-  </si>
-  <si>
-    <t>黏土实心砖(Clay Solid Brick)</t>
-  </si>
-  <si>
-    <t>烧结粉煤灰实心砖(50%掺入量)(Sintered Fly Ash Solid Brick)</t>
-  </si>
-  <si>
-    <t>烧结多孔(空心)砖(Sintered Porous (Hollow) Brick)</t>
-  </si>
-  <si>
-    <t>1.2 to 1.8 g/cm³</t>
-  </si>
-  <si>
-    <t>页岩实心砖(Shale Solid Brick)</t>
-  </si>
-  <si>
-    <t>页岩空心砖(Shale Hollow Brick)</t>
-  </si>
-  <si>
-    <t>煤酐石实心砖(90%掺人量)(Coal Gangue Solid Brick)</t>
-  </si>
-  <si>
-    <t>煤研石空心砖(90%掺人量)(Coal Gangue Hollow Brick)</t>
-  </si>
-  <si>
-    <t>混凝土砖(Concrete Brick)</t>
-  </si>
-  <si>
-    <t>混凝土小型空心砌块(Concrete Small Hollow Block)</t>
-  </si>
-  <si>
-    <t>粉煤灰小型空心砌块(Fly Ash Small Hollow Block)</t>
-  </si>
-  <si>
-    <t>加气混凝土砌块(Autoclaved Aerated Concrete Block)</t>
-  </si>
-  <si>
-    <t>0.4 to 0.8 g/cm³</t>
-  </si>
-  <si>
-    <t>密度g/cm³</t>
-  </si>
-  <si>
-    <t>强度MPa</t>
-  </si>
-  <si>
-    <t>热传导W/(m·K)</t>
-  </si>
-  <si>
-    <t>普通硅酸盐水泥(市场平均)(Portland Cement (market average))</t>
   </si>
 </sst>
 </file>
@@ -6165,7 +6160,7 @@
         <v>94.44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F2" s="4">
         <v>27.4</v>
@@ -6205,7 +6200,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F3" s="4">
         <v>26.1</v>
@@ -6245,7 +6240,7 @@
         <v>98.56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F4" s="4">
         <v>28</v>
@@ -6285,7 +6280,7 @@
         <v>91.27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F5" s="4">
         <v>25.4</v>
@@ -6325,7 +6320,7 @@
         <v>110.88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F6" s="4">
         <v>33.6</v>
@@ -6365,7 +6360,7 @@
         <v>100.6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="4">
         <v>29.5</v>
@@ -6405,7 +6400,7 @@
         <v>100.6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F8" s="4">
         <v>29.5</v>
@@ -6445,7 +6440,7 @@
         <v>72.23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F9" s="4">
         <v>20.100000000000001</v>
@@ -6485,7 +6480,7 @@
         <v>75.819999999999993</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F10" s="4">
         <v>21.1</v>
@@ -6525,7 +6520,7 @@
         <v>67.91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F11" s="4">
         <v>18.899999999999999</v>
@@ -6565,7 +6560,7 @@
         <v>72.59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F12" s="4">
         <v>20.2</v>
@@ -6605,7 +6600,7 @@
         <v>70.069999999999993</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F13" s="4">
         <v>19.5</v>
@@ -6645,7 +6640,7 @@
         <v>70.430000000000007</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F14" s="4">
         <v>19.600000000000001</v>
@@ -6685,7 +6680,7 @@
         <v>61.81</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F15" s="4">
         <v>17.2</v>
@@ -6725,7 +6720,7 @@
         <v>61.81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F16" s="4">
         <v>17.2</v>
@@ -6765,7 +6760,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F17" s="4">
         <v>18.2</v>
@@ -6805,7 +6800,7 @@
         <v>71.87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F18" s="4">
         <v>20</v>
@@ -6845,7 +6840,7 @@
         <v>79.05</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F19" s="4">
         <v>22</v>
@@ -6885,7 +6880,7 @@
         <v>71.87</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F20" s="4">
         <v>20</v>
@@ -6925,7 +6920,7 @@
         <v>98.82</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F21" s="4">
         <v>27.5</v>
@@ -6965,7 +6960,7 @@
         <v>71.87</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F22" s="4">
         <v>20</v>
@@ -7005,7 +7000,7 @@
         <v>71.87</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F23" s="4">
         <v>20</v>
@@ -7045,7 +7040,7 @@
         <v>55.54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F24" s="4">
         <v>15.3</v>
@@ -7085,7 +7080,7 @@
         <v>91.7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F25" s="4">
         <v>25</v>
@@ -7125,7 +7120,7 @@
         <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F26" s="4">
         <v>39</v>
@@ -7165,7 +7160,7 @@
         <v>73.3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F27" s="4">
         <v>20</v>
@@ -7205,7 +7200,7 @@
         <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F28" s="4">
         <v>28.9</v>
@@ -7245,7 +7240,7 @@
         <v>112</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F29" s="4">
         <v>30.5</v>
@@ -7285,7 +7280,7 @@
         <v>95.3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F30" s="4">
         <v>26</v>
@@ -7325,7 +7320,7 @@
         <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F31" s="4">
         <v>30.5</v>
@@ -7365,7 +7360,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F32" s="4">
         <v>27.3</v>
@@ -7405,7 +7400,7 @@
         <v>70.8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F33" s="4">
         <v>19.3</v>
@@ -7445,7 +7440,7 @@
         <v>70.8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F34" s="4">
         <v>19.3</v>
@@ -7485,7 +7480,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F35" s="4">
         <v>21.7</v>
@@ -7525,7 +7520,7 @@
         <v>54.6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F36" s="4">
         <v>14.9</v>
@@ -7565,7 +7560,7 @@
         <v>54.6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F37" s="4">
         <v>14.9</v>
@@ -7605,7 +7600,7 @@
         <v>54.6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F38" s="4">
         <v>14.9</v>
@@ -7645,7 +7640,7 @@
         <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F39" s="4">
         <v>27.3</v>
@@ -7686,7 +7681,7 @@
         <v>1.246</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G40" s="3"/>
       <c r="I40" s="3"/>
@@ -7717,7 +7712,7 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G41" s="3"/>
       <c r="I41" s="3"/>
@@ -7748,7 +7743,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G42" s="3"/>
       <c r="I42" s="3"/>
@@ -7779,7 +7774,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G43" s="3"/>
       <c r="I43" s="3"/>
@@ -7810,7 +7805,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G44" s="3"/>
       <c r="I44" s="3"/>
@@ -7841,7 +7836,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G45" s="3"/>
       <c r="I45" s="3"/>
@@ -7872,7 +7867,7 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G46" s="3"/>
       <c r="I46" s="3"/>
@@ -7902,13 +7897,13 @@
         <v>91.43</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D47" s="3">
         <v>1.9119999999999999</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F47" s="4">
         <v>26.4</v>
@@ -7948,13 +7943,13 @@
         <v>94.88</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D48" s="3">
         <v>2.38</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F48" s="4">
         <v>27.4</v>
@@ -7994,13 +7989,13 @@
         <v>89.44</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D49" s="3">
         <v>1.87</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F49" s="4">
         <v>26.1</v>
@@ -8040,13 +8035,13 @@
         <v>99</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D50" s="3">
         <v>1.242</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F50" s="4">
         <v>28</v>
@@ -8086,13 +8081,13 @@
         <v>91.71</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D51" s="3">
         <v>2.3010000000000002</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F51" s="4">
         <v>25.4</v>
@@ -8132,13 +8127,13 @@
         <v>91.71</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D52" s="3">
         <v>2.4159999999999999</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F52" s="4">
         <v>25.4</v>
@@ -8178,13 +8173,13 @@
         <v>91.71</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D53" s="3">
         <v>1.831</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F53" s="4">
         <v>25.4</v>
@@ -8224,13 +8219,13 @@
         <v>101.03</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D54" s="3">
         <v>2.8730000000000002</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F54" s="4">
         <v>29.5</v>
@@ -8270,13 +8265,13 @@
         <v>93.15</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D55" s="3">
         <v>0.77900000000000003</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F55" s="4">
         <v>25.8</v>
@@ -8316,13 +8311,13 @@
         <v>44.42</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D56" s="3">
         <v>0.77100000000000002</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F56" s="4">
         <v>12.1</v>
@@ -8362,13 +8357,13 @@
         <v>259.66000000000003</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D57" s="3">
         <v>0.97699999999999998</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F57" s="4">
         <v>70.8</v>
@@ -8408,13 +8403,13 @@
         <v>181.92</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D58" s="3">
         <v>1.4450000000000001</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F58" s="4">
         <v>49.6</v>
@@ -8454,13 +8449,13 @@
         <v>44.34</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D59" s="3">
         <v>0.23200000000000001</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F59" s="4">
         <v>12.2</v>
@@ -8500,13 +8495,13 @@
         <v>72.48</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D60" s="3">
         <v>3.0310000000000001</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F60" s="4">
         <v>20.100000000000001</v>
@@ -8546,13 +8541,13 @@
         <v>68.17</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D61" s="3">
         <v>2.9359999999999999</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F61" s="4">
         <v>18.899999999999999</v>
@@ -8592,13 +8587,13 @@
         <v>70.680000000000007</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D62" s="3">
         <v>3.044</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F62" s="4">
         <v>19.600000000000001</v>
@@ -8638,13 +8633,13 @@
         <v>72.84</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D63" s="3">
         <v>3.1070000000000002</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F63" s="4">
         <v>20.2</v>
@@ -8684,13 +8679,13 @@
         <v>76.069999999999993</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D64" s="3">
         <v>3.181</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F64" s="4">
         <v>21.1</v>
@@ -8730,13 +8725,13 @@
         <v>61.86</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D65" s="3">
         <v>3.1040000000000001</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F65" s="4">
         <v>17.2</v>
@@ -8776,13 +8771,13 @@
         <v>65.459999999999994</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D66" s="3">
         <v>3.0150000000000001</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F66" s="4">
         <v>18.2</v>
@@ -8822,13 +8817,13 @@
         <v>79.31</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D67" s="3">
         <v>3.0870000000000002</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F67" s="4">
         <v>22</v>
@@ -8868,13 +8863,13 @@
         <v>62.06</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D68" s="3">
         <v>3.1920000000000002</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F68" s="4">
         <v>17.2</v>
@@ -8914,13 +8909,13 @@
         <v>55.6</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D69" s="3">
         <v>2.1640000000000001</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F69" s="4">
         <v>15.3</v>
@@ -11510,7 +11505,7 @@
         <v>0.86</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -11532,7 +11527,7 @@
         <v>374</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="P151" s="3"/>
     </row>
@@ -12008,7 +12003,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -12042,7 +12037,7 @@
         <v>0.36</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -12076,7 +12071,7 @@
         <v>0.19</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -12110,7 +12105,7 @@
         <v>0.19</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -12144,7 +12139,7 @@
         <v>0.7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -12178,7 +12173,7 @@
         <v>2.8</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -12784,7 +12779,7 @@
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B189" s="3">
         <v>3.16</v>
@@ -13298,7 +13293,7 @@
   <dimension ref="A1:S425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F43" sqref="F43:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13323,13 +13318,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -13364,7 +13359,7 @@
     </row>
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B2" s="3">
         <v>30</v>
@@ -13379,7 +13374,7 @@
         <v>2315.25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -13402,7 +13397,7 @@
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="A3" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B3" s="3">
         <v>30</v>
@@ -13417,7 +13412,7 @@
         <v>678.5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -13440,7 +13435,7 @@
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="A4" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B4" s="3">
         <v>50</v>
@@ -13455,7 +13450,7 @@
         <v>924</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -13478,7 +13473,7 @@
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="A5" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B5" s="3">
         <v>5.5</v>
@@ -13493,7 +13488,7 @@
         <v>1190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -13516,7 +13511,7 @@
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="A6" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B6" s="3">
         <v>5.5</v>
@@ -13531,7 +13526,7 @@
         <v>2975</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -13554,7 +13549,7 @@
     </row>
     <row r="7" spans="1:14" ht="18">
       <c r="A7" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B7" s="3">
         <v>3.5</v>
@@ -13569,7 +13564,7 @@
         <v>83.64</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -13592,7 +13587,7 @@
     </row>
     <row r="8" spans="1:14" ht="18">
       <c r="A8" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="3">
         <v>15</v>
@@ -13607,7 +13602,7 @@
         <v>3.7650000000000001</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -13630,7 +13625,7 @@
     </row>
     <row r="9" spans="1:14" ht="18">
       <c r="A9" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B9" s="3">
         <v>175</v>
@@ -13645,7 +13640,7 @@
         <v>3.8149999999999999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -13668,7 +13663,7 @@
     </row>
     <row r="10" spans="1:14" ht="18">
       <c r="A10" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B10" s="3">
         <v>55</v>
@@ -13683,7 +13678,7 @@
         <v>14.224</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -13706,7 +13701,7 @@
     </row>
     <row r="11" spans="1:14" ht="18">
       <c r="A11" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="3">
         <v>5.5</v>
@@ -13721,7 +13716,7 @@
         <v>5.649</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -13744,7 +13739,7 @@
     </row>
     <row r="12" spans="1:14" ht="18">
       <c r="A12" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B12" s="3">
         <v>13.5</v>
@@ -13759,7 +13754,7 @@
         <v>336</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -13782,7 +13777,7 @@
     </row>
     <row r="13" spans="1:14" ht="18">
       <c r="A13" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
@@ -13797,7 +13792,7 @@
         <v>341</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -13820,7 +13815,7 @@
     </row>
     <row r="14" spans="1:14" ht="18">
       <c r="A14" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B14" s="3">
         <v>12.5</v>
@@ -13835,7 +13830,7 @@
         <v>134</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -13858,7 +13853,7 @@
     </row>
     <row r="15" spans="1:14" ht="18">
       <c r="A15" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B15" s="3">
         <v>20</v>
@@ -13873,7 +13868,7 @@
         <v>292</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -13896,7 +13891,7 @@
     </row>
     <row r="16" spans="1:14" ht="18">
       <c r="A16" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B16" s="3">
         <v>12.5</v>
@@ -13911,7 +13906,7 @@
         <v>204</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -13934,7 +13929,7 @@
     </row>
     <row r="17" spans="1:14" ht="18">
       <c r="A17" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
@@ -13949,7 +13944,7 @@
         <v>250</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -13972,7 +13967,7 @@
     </row>
     <row r="18" spans="1:14" ht="18">
       <c r="A18" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B18" s="3">
         <v>20</v>
@@ -13987,7 +13982,7 @@
         <v>22.8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -14010,7 +14005,7 @@
     </row>
     <row r="19" spans="1:14" ht="18">
       <c r="A19" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B19" s="3">
         <v>12.5</v>
@@ -14025,7 +14020,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -14046,9 +14041,9 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="17">
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B20" s="3">
         <v>275</v>
@@ -14060,10 +14055,10 @@
         <v>7.1</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>12070</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -14084,9 +14079,9 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="17">
+    <row r="21" spans="1:14" ht="18">
       <c r="A21" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B21" s="3">
         <v>250</v>
@@ -14098,10 +14093,10 @@
         <v>7.35</v>
       </c>
       <c r="E21" s="3">
-        <v>2280</v>
+        <v>16758</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -14122,9 +14117,9 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="17">
+    <row r="22" spans="1:14" ht="18">
       <c r="A22" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B22" s="3">
         <v>70</v>
@@ -14136,10 +14131,10 @@
         <v>2.65</v>
       </c>
       <c r="E22" s="3">
-        <v>1130</v>
+        <v>2994.5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -14160,9 +14155,9 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="17">
+    <row r="23" spans="1:14" ht="18">
       <c r="A23" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B23" s="3">
         <v>150</v>
@@ -14174,10 +14169,10 @@
         <v>2.65</v>
       </c>
       <c r="E23" s="3">
-        <v>20300</v>
+        <v>53795</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -14198,9 +14193,9 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="17">
+    <row r="24" spans="1:14" ht="18">
       <c r="A24" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B24" s="3">
         <v>200</v>
@@ -14212,10 +14207,10 @@
         <v>2.7</v>
       </c>
       <c r="E24" s="3">
-        <v>28500</v>
+        <v>76950</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -14238,7 +14233,7 @@
     </row>
     <row r="25" spans="1:14" ht="18">
       <c r="A25" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B25" s="3">
         <v>50</v>
@@ -14253,7 +14248,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -14274,9 +14269,9 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="17">
+    <row r="26" spans="1:14" ht="18">
       <c r="A26" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B26" s="3">
         <v>50</v>
@@ -14288,10 +14283,10 @@
         <v>0.9</v>
       </c>
       <c r="E26" s="3">
-        <v>3.72</v>
+        <v>3.3479999999999998E-3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1001</v>
+        <v>1220</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -14312,9 +14307,9 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="17">
+    <row r="27" spans="1:14" ht="18">
       <c r="A27" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B27" s="3">
         <v>50</v>
@@ -14326,10 +14321,10 @@
         <v>0.94</v>
       </c>
       <c r="E27" s="3">
-        <v>3.6</v>
+        <v>3.3839999999999999E-3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1001</v>
+        <v>1220</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -14350,9 +14345,9 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="17">
+    <row r="28" spans="1:14" ht="18">
       <c r="A28" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B28" s="3">
         <v>55</v>
@@ -14364,10 +14359,10 @@
         <v>1.4</v>
       </c>
       <c r="E28" s="3">
-        <v>7.93</v>
+        <v>1.1102000000000001E-2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1001</v>
+        <v>1220</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -14388,9 +14383,9 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="17">
+    <row r="29" spans="1:14" ht="18">
       <c r="A29" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B29" s="3">
         <v>0.42499999999999999</v>
@@ -14402,10 +14397,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E29" s="3">
-        <v>5020</v>
+        <v>125.5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -14426,9 +14421,9 @@
       </c>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="17">
+    <row r="30" spans="1:14" ht="18">
       <c r="A30" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B30" s="3">
         <v>0.2</v>
@@ -14440,10 +14435,10 @@
         <v>0.15</v>
       </c>
       <c r="E30" s="3">
-        <v>1980</v>
+        <v>297</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -14464,9 +14459,9 @@
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="17">
+    <row r="31" spans="1:14" ht="18">
       <c r="A31" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B31" s="3">
         <v>0.5</v>
@@ -14478,10 +14473,10 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="E31" s="3">
-        <v>5220</v>
+        <v>169.65</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -14504,7 +14499,7 @@
     </row>
     <row r="32" spans="1:14" ht="18">
       <c r="A32" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B32" s="3">
         <v>100</v>
@@ -14519,7 +14514,7 @@
         <v>8.06</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -14542,7 +14537,7 @@
     </row>
     <row r="33" spans="1:14" ht="18">
       <c r="A33" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B33" s="3">
         <v>115</v>
@@ -14557,7 +14552,7 @@
         <v>37.1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -14580,7 +14575,7 @@
     </row>
     <row r="34" spans="1:14" ht="18">
       <c r="A34" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B34" s="3">
         <v>230</v>
@@ -14595,7 +14590,7 @@
         <v>218</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -14616,9 +14611,9 @@
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="17">
+    <row r="35" spans="1:14" ht="18">
       <c r="A35" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B35" s="3">
         <v>50</v>
@@ -14630,10 +14625,10 @@
         <v>1.06</v>
       </c>
       <c r="E35" s="3">
-        <v>4620</v>
+        <v>4897.2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -14654,9 +14649,9 @@
       </c>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="17">
+    <row r="36" spans="1:14" ht="18">
       <c r="A36" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B36" s="3">
         <v>17.5</v>
@@ -14668,10 +14663,10 @@
         <v>0.92</v>
       </c>
       <c r="E36" s="3">
-        <v>1990</v>
+        <v>1830.8</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -14692,9 +14687,9 @@
       </c>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="17">
+    <row r="37" spans="1:14" ht="18">
       <c r="A37" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B37" s="3">
         <v>30</v>
@@ -14706,10 +14701,10 @@
         <v>0.95250000000000001</v>
       </c>
       <c r="E37" s="3">
-        <v>2620</v>
+        <v>2495.5500000000002</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -14730,9 +14725,9 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="17">
+    <row r="38" spans="1:14" ht="18">
       <c r="A38" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -14742,10 +14737,10 @@
         <v>7.15</v>
       </c>
       <c r="E38" s="3">
-        <v>9530</v>
+        <v>68139.5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -14766,9 +14761,9 @@
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="17">
+    <row r="39" spans="1:14" ht="18">
       <c r="A39" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
@@ -14778,10 +14773,10 @@
         <v>7.85</v>
       </c>
       <c r="E39" s="3">
-        <v>1990</v>
+        <v>15621.5</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -14802,9 +14797,9 @@
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="17">
+    <row r="40" spans="1:14" ht="18">
       <c r="A40" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -14814,10 +14809,10 @@
         <v>7.75</v>
       </c>
       <c r="E40" s="3">
-        <v>3030</v>
+        <v>23482.5</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -14838,9 +14833,9 @@
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="17">
+    <row r="41" spans="1:14" ht="18">
       <c r="A41" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
@@ -14850,10 +14845,10 @@
         <v>7.8</v>
       </c>
       <c r="E41" s="3">
-        <v>2050</v>
+        <v>15990</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -14876,7 +14871,7 @@
     </row>
     <row r="42" spans="1:14" ht="18">
       <c r="A42" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -14889,7 +14884,7 @@
         <v>241</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -14912,7 +14907,7 @@
     </row>
     <row r="43" spans="1:14" ht="18">
       <c r="A43" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
@@ -14925,7 +14920,7 @@
         <v>194</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -14948,7 +14943,7 @@
     </row>
     <row r="44" spans="1:14" ht="18">
       <c r="A44" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
@@ -14961,7 +14956,7 @@
         <v>147</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -14982,9 +14977,9 @@
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" ht="17">
+    <row r="45" spans="1:14" ht="18">
       <c r="A45" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
@@ -14994,10 +14989,10 @@
         <v>0.91749999999999998</v>
       </c>
       <c r="E45" s="3">
-        <v>2810</v>
+        <v>2578.1750000000002</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -15018,9 +15013,9 @@
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="17">
+    <row r="46" spans="1:14" ht="18">
       <c r="A46" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
@@ -15030,10 +15025,10 @@
         <v>1.35</v>
       </c>
       <c r="E46" s="3">
-        <v>7300</v>
+        <v>9855</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -15054,9 +15049,9 @@
       </c>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" ht="17">
+    <row r="47" spans="1:14" ht="18">
       <c r="A47" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3">
@@ -15066,10 +15061,10 @@
         <v>0.998</v>
       </c>
       <c r="E47" s="3">
-        <v>0.16800000000000001</v>
+        <v>0.16766400000000001</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>998</v>
+        <v>1220</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -15090,9 +15085,9 @@
       </c>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="17">
+    <row r="48" spans="1:14" ht="18">
       <c r="A48" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3">
@@ -15102,10 +15097,10 @@
         <v>3.1</v>
       </c>
       <c r="E48" s="3">
-        <v>0.53800000000000003</v>
+        <v>1.6677999999999999</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1002</v>
+        <v>1220</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -15126,9 +15121,9 @@
       </c>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" ht="17">
+    <row r="49" spans="1:14" ht="18">
       <c r="A49" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3">
@@ -15138,10 +15133,10 @@
         <v>2.5</v>
       </c>
       <c r="E49" s="3">
-        <v>0.68300000000000005</v>
+        <v>1.7075</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1002</v>
+        <v>1220</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -15162,9 +15157,9 @@
       </c>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="17">
+    <row r="50" spans="1:14" ht="18">
       <c r="A50" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3">
@@ -15174,10 +15169,10 @@
         <v>2.7</v>
       </c>
       <c r="E50" s="3">
-        <v>0.43</v>
+        <v>0.81</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1002</v>
+        <v>1220</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -15198,9 +15193,9 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="17">
+    <row r="51" spans="1:14" ht="18">
       <c r="A51" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3">
@@ -15210,10 +15205,10 @@
         <v>2.85</v>
       </c>
       <c r="E51" s="3">
-        <v>0.47399999999999998</v>
+        <v>1.3509</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1002</v>
+        <v>1220</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -15236,7 +15231,7 @@
     </row>
     <row r="52" spans="1:14" ht="18">
       <c r="A52" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3">
@@ -15249,7 +15244,7 @@
         <v>122.5</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -15272,7 +15267,7 @@
     </row>
     <row r="53" spans="1:14" ht="18">
       <c r="A53" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3">
@@ -15285,7 +15280,7 @@
         <v>129.5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -15308,7 +15303,7 @@
     </row>
     <row r="54" spans="1:14" ht="17">
       <c r="A54" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3">
@@ -15344,7 +15339,7 @@
     </row>
     <row r="55" spans="1:14" ht="17">
       <c r="A55" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3">
@@ -15380,7 +15375,7 @@
     </row>
     <row r="56" spans="1:14" ht="17">
       <c r="A56" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3">
@@ -15416,7 +15411,7 @@
     </row>
     <row r="57" spans="1:14" ht="17">
       <c r="A57" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3">
@@ -15452,7 +15447,7 @@
     </row>
     <row r="58" spans="1:14" ht="17">
       <c r="A58" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3">
@@ -15488,7 +15483,7 @@
     </row>
     <row r="59" spans="1:14" ht="17">
       <c r="A59" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3">
@@ -15524,7 +15519,7 @@
     </row>
     <row r="60" spans="1:14" ht="17">
       <c r="A60" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3">
@@ -15560,7 +15555,7 @@
     </row>
     <row r="61" spans="1:14" ht="17">
       <c r="A61" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3">
@@ -15596,7 +15591,7 @@
     </row>
     <row r="62" spans="1:14" ht="17">
       <c r="A62" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
@@ -15632,7 +15627,7 @@
     </row>
     <row r="63" spans="1:14" ht="17">
       <c r="A63" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3">
@@ -15668,7 +15663,7 @@
     </row>
     <row r="64" spans="1:14" ht="17">
       <c r="A64" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3">
@@ -15704,7 +15699,7 @@
     </row>
     <row r="65" spans="1:14" ht="17">
       <c r="A65" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
@@ -15740,7 +15735,7 @@
     </row>
     <row r="66" spans="1:14" ht="17">
       <c r="A66" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3">
@@ -15776,7 +15771,7 @@
     </row>
     <row r="67" spans="1:14" ht="17">
       <c r="A67" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3">
@@ -15812,7 +15807,7 @@
     </row>
     <row r="68" spans="1:14" ht="17">
       <c r="A68" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3">
@@ -15848,7 +15843,7 @@
     </row>
     <row r="69" spans="1:14" ht="17">
       <c r="A69" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3">
@@ -15884,7 +15879,7 @@
     </row>
     <row r="70" spans="1:14" ht="17">
       <c r="A70" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3">
@@ -15920,7 +15915,7 @@
     </row>
     <row r="71" spans="1:14" ht="17">
       <c r="A71" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3">
@@ -15956,7 +15951,7 @@
     </row>
     <row r="72" spans="1:14" ht="17">
       <c r="A72" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3">
@@ -15992,7 +15987,7 @@
     </row>
     <row r="73" spans="1:14" ht="17">
       <c r="A73" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3">
@@ -16028,7 +16023,7 @@
     </row>
     <row r="74" spans="1:14" ht="17">
       <c r="A74" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3">
@@ -16064,12 +16059,12 @@
     </row>
     <row r="75" spans="1:14" ht="17">
       <c r="A75" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E75" s="3">
         <v>0.17</v>
@@ -16102,12 +16097,12 @@
     </row>
     <row r="76" spans="1:14" ht="17">
       <c r="A76" s="8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E76" s="3">
         <v>2.69</v>
@@ -16140,12 +16135,12 @@
     </row>
     <row r="77" spans="1:14" ht="17">
       <c r="A77" s="8" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E77" s="3">
         <v>2.5099999999999998</v>
@@ -16178,12 +16173,12 @@
     </row>
     <row r="78" spans="1:14" ht="17">
       <c r="A78" s="8" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E78" s="3">
         <v>2.1800000000000002</v>
@@ -16216,12 +16211,12 @@
     </row>
     <row r="79" spans="1:14" ht="17">
       <c r="A79" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E79" s="3">
         <v>13</v>
@@ -16254,12 +16249,12 @@
     </row>
     <row r="80" spans="1:14" ht="17">
       <c r="A80" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E80" s="3">
         <v>430</v>
@@ -16290,12 +16285,12 @@
     </row>
     <row r="81" spans="1:14" ht="17">
       <c r="A81" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E81" s="3">
         <v>474</v>
@@ -16326,12 +16321,12 @@
     </row>
     <row r="82" spans="1:14" ht="17">
       <c r="A82" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E82" s="3">
         <v>8</v>
@@ -16364,12 +16359,12 @@
     </row>
     <row r="83" spans="1:14" ht="17">
       <c r="A83" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E83" s="3">
         <v>109</v>
@@ -16402,12 +16397,12 @@
     </row>
     <row r="84" spans="1:14" ht="17">
       <c r="A84" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E84" s="3">
         <v>150</v>
@@ -16440,12 +16435,12 @@
     </row>
     <row r="85" spans="1:14" ht="17">
       <c r="A85" s="8" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E85" s="3">
         <v>150</v>
@@ -16478,12 +16473,12 @@
     </row>
     <row r="86" spans="1:14" ht="17">
       <c r="A86" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E86" s="3">
         <v>400</v>
@@ -16516,12 +16511,12 @@
     </row>
     <row r="87" spans="1:14" ht="17">
       <c r="A87" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E87" s="3">
         <v>1190</v>
@@ -16554,12 +16549,12 @@
     </row>
     <row r="88" spans="1:14" ht="17">
       <c r="A88" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E88" s="3">
         <v>740</v>
@@ -16590,12 +16585,12 @@
     </row>
     <row r="89" spans="1:14" ht="17">
       <c r="A89" s="8" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E89" s="3">
         <v>32.799999999999997</v>
@@ -16628,24 +16623,24 @@
     </row>
     <row r="90" spans="1:14" ht="18">
       <c r="A90" s="8" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E90" s="3">
         <v>178</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>70</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>57</v>
@@ -16666,24 +16661,24 @@
     </row>
     <row r="91" spans="1:14" ht="18">
       <c r="A91" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E91" s="3">
         <v>336</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>57</v>
@@ -16704,24 +16699,24 @@
     </row>
     <row r="92" spans="1:14" ht="18">
       <c r="A92" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E92" s="3">
         <v>487</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>57</v>
@@ -16742,12 +16737,12 @@
     </row>
     <row r="93" spans="1:14" ht="17">
       <c r="A93" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E93" s="3">
         <v>24.4</v>
@@ -16778,18 +16773,18 @@
     </row>
     <row r="94" spans="1:14" ht="18">
       <c r="A94" s="8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E94" s="3">
         <v>910</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>62</v>
@@ -16814,12 +16809,12 @@
     </row>
     <row r="95" spans="1:14" ht="17">
       <c r="A95" s="8" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E95" s="3">
         <v>735</v>
@@ -16852,12 +16847,12 @@
     </row>
     <row r="96" spans="1:14" ht="17">
       <c r="A96" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E96" s="3">
         <v>905</v>
@@ -16890,12 +16885,12 @@
     </row>
     <row r="97" spans="1:14" ht="17">
       <c r="A97" s="8" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E97" s="3">
         <v>920</v>
@@ -16928,12 +16923,12 @@
     </row>
     <row r="98" spans="1:14" ht="17">
       <c r="A98" s="8" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E98" s="3">
         <v>939</v>
@@ -16966,12 +16961,12 @@
     </row>
     <row r="99" spans="1:14" ht="17">
       <c r="A99" s="8" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E99" s="3">
         <v>941</v>
@@ -17004,12 +16999,12 @@
     </row>
     <row r="100" spans="1:14" ht="17">
       <c r="A100" s="8" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E100" s="3">
         <v>958</v>
@@ -17042,12 +17037,12 @@
     </row>
     <row r="101" spans="1:14" ht="17">
       <c r="A101" s="8" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E101" s="3">
         <v>874</v>
@@ -17080,12 +17075,12 @@
     </row>
     <row r="102" spans="1:14" ht="17">
       <c r="A102" s="8" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E102" s="3">
         <v>889</v>
@@ -17118,12 +17113,12 @@
     </row>
     <row r="103" spans="1:14" ht="17">
       <c r="A103" s="8" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E103" s="3">
         <v>918</v>
@@ -17156,12 +17151,12 @@
     </row>
     <row r="104" spans="1:14" ht="17">
       <c r="A104" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E104" s="3">
         <v>795</v>
@@ -17194,12 +17189,12 @@
     </row>
     <row r="105" spans="1:14" ht="17">
       <c r="A105" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E105" s="3">
         <v>863</v>
@@ -17232,12 +17227,12 @@
     </row>
     <row r="106" spans="1:14" ht="17">
       <c r="A106" s="8" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E106" s="3">
         <v>621</v>
@@ -17270,12 +17265,12 @@
     </row>
     <row r="107" spans="1:14" ht="17">
       <c r="A107" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E107" s="3">
         <v>742</v>
@@ -17308,12 +17303,12 @@
     </row>
     <row r="108" spans="1:14" ht="17">
       <c r="A108" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E108" s="3">
         <v>503</v>
@@ -17346,12 +17341,12 @@
     </row>
     <row r="109" spans="1:14" ht="17">
       <c r="A109" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E109" s="3">
         <v>631</v>
@@ -17384,12 +17379,12 @@
     </row>
     <row r="110" spans="1:14" ht="17">
       <c r="A110" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E110" s="3">
         <v>722</v>
@@ -17422,12 +17417,12 @@
     </row>
     <row r="111" spans="1:14" ht="17">
       <c r="A111" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E111" s="3">
         <v>631</v>
@@ -17460,12 +17455,12 @@
     </row>
     <row r="112" spans="1:14" ht="17">
       <c r="A112" s="8" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E112" s="3">
         <v>722</v>
@@ -17498,12 +17493,12 @@
     </row>
     <row r="113" spans="1:14" ht="17">
       <c r="A113" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E113" s="3">
         <v>604</v>
@@ -17536,12 +17531,12 @@
     </row>
     <row r="114" spans="1:14" ht="17">
       <c r="A114" s="8" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E114" s="3">
         <v>742</v>
@@ -17574,24 +17569,24 @@
     </row>
     <row r="115" spans="1:14" ht="18">
       <c r="A115" s="8" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E115" s="3">
         <v>224</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>83</v>
@@ -17612,24 +17607,24 @@
     </row>
     <row r="116" spans="1:14" ht="18">
       <c r="A116" s="8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E116" s="3">
         <v>236</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>83</v>
@@ -17650,24 +17645,24 @@
     </row>
     <row r="117" spans="1:14" ht="18">
       <c r="A117" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E117" s="3">
         <v>239</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>84</v>
@@ -17688,24 +17683,24 @@
     </row>
     <row r="118" spans="1:14" ht="18">
       <c r="A118" s="8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E118" s="3">
         <v>234</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>83</v>
@@ -17726,24 +17721,24 @@
     </row>
     <row r="119" spans="1:14" ht="18">
       <c r="A119" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E119" s="3">
         <v>155</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>83</v>
@@ -17764,24 +17759,24 @@
     </row>
     <row r="120" spans="1:14" ht="18">
       <c r="A120" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E120" s="3">
         <v>165</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>83</v>
@@ -17802,24 +17797,24 @@
     </row>
     <row r="121" spans="1:14" ht="18">
       <c r="A121" s="8" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E121" s="3">
         <v>181</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>83</v>
@@ -17840,24 +17835,24 @@
     </row>
     <row r="122" spans="1:14" ht="18">
       <c r="A122" s="8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E122" s="3">
         <v>200</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>83</v>
@@ -17878,24 +17873,24 @@
     </row>
     <row r="123" spans="1:14" ht="18">
       <c r="A123" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E123" s="3">
         <v>232</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>83</v>
@@ -17916,24 +17911,24 @@
     </row>
     <row r="124" spans="1:14" ht="18">
       <c r="A124" s="8" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E124" s="3">
         <v>405</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>83</v>
@@ -17954,24 +17949,24 @@
     </row>
     <row r="125" spans="1:14" ht="18">
       <c r="A125" s="8" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E125" s="3">
         <v>277</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>83</v>
@@ -17992,24 +17987,24 @@
     </row>
     <row r="126" spans="1:14" ht="18">
       <c r="A126" s="8" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E126" s="3">
         <v>285</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>83</v>
@@ -18030,24 +18025,24 @@
     </row>
     <row r="127" spans="1:14" ht="18">
       <c r="A127" s="8" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E127" s="3">
         <v>342</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>83</v>
@@ -18068,24 +18063,24 @@
     </row>
     <row r="128" spans="1:14" ht="18">
       <c r="A128" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E128" s="3">
         <v>293</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>83</v>
@@ -18106,24 +18101,24 @@
     </row>
     <row r="129" spans="1:14" ht="18">
       <c r="A129" s="8" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E129" s="3">
         <v>510</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>83</v>
@@ -18144,24 +18139,24 @@
     </row>
     <row r="130" spans="1:14" ht="18">
       <c r="A130" s="8" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E130" s="3">
         <v>172</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>85</v>
@@ -18182,24 +18177,24 @@
     </row>
     <row r="131" spans="1:14" ht="18">
       <c r="A131" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E131" s="3">
         <v>178</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>85</v>
@@ -18220,24 +18215,24 @@
     </row>
     <row r="132" spans="1:14" ht="18">
       <c r="A132" s="8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E132" s="3">
         <v>265</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>85</v>
@@ -18258,24 +18253,24 @@
     </row>
     <row r="133" spans="1:14" ht="18">
       <c r="A133" s="8" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E133" s="3">
         <v>293</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>85</v>
@@ -18296,24 +18291,24 @@
     </row>
     <row r="134" spans="1:14" ht="18">
       <c r="A134" s="8" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E134" s="3">
         <v>316</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>85</v>
@@ -18334,24 +18329,24 @@
     </row>
     <row r="135" spans="1:14" ht="18">
       <c r="A135" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E135" s="3">
         <v>363</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>85</v>
@@ -18372,24 +18367,24 @@
     </row>
     <row r="136" spans="1:14" ht="18">
       <c r="A136" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E136" s="3">
         <v>410</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>85</v>
@@ -18410,24 +18405,24 @@
     </row>
     <row r="137" spans="1:14" ht="18">
       <c r="A137" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E137" s="3">
         <v>441</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>85</v>
@@ -18448,24 +18443,24 @@
     </row>
     <row r="138" spans="1:14" ht="18">
       <c r="A138" s="8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E138" s="3">
         <v>464</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>85</v>
@@ -18486,24 +18481,24 @@
     </row>
     <row r="139" spans="1:14" ht="18">
       <c r="A139" s="8" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E139" s="3">
         <v>320</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>85</v>
@@ -18524,24 +18519,24 @@
     </row>
     <row r="140" spans="1:14" ht="18">
       <c r="A140" s="8" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E140" s="3">
         <v>333</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>85</v>
@@ -18562,24 +18557,24 @@
     </row>
     <row r="141" spans="1:14" ht="18">
       <c r="A141" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E141" s="3">
         <v>295</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>87</v>
@@ -18600,24 +18595,24 @@
     </row>
     <row r="142" spans="1:14" ht="18">
       <c r="A142" s="8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E142" s="3">
         <v>134</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>87</v>
@@ -18638,24 +18633,24 @@
     </row>
     <row r="143" spans="1:14" ht="18">
       <c r="A143" s="8" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E143" s="3">
         <v>250</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>87</v>
@@ -18676,24 +18671,24 @@
     </row>
     <row r="144" spans="1:14" ht="18">
       <c r="A144" s="8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E144" s="3">
         <v>292</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>87</v>
@@ -18714,24 +18709,24 @@
     </row>
     <row r="145" spans="1:14" ht="18">
       <c r="A145" s="8" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E145" s="3">
         <v>204</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>87</v>
@@ -18752,24 +18747,24 @@
     </row>
     <row r="146" spans="1:14" ht="18">
       <c r="A146" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E146" s="3">
         <v>22.8</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>87</v>
@@ -18790,24 +18785,24 @@
     </row>
     <row r="147" spans="1:14" ht="18">
       <c r="A147" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E147" s="3">
         <v>16</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>87</v>
@@ -18828,24 +18823,24 @@
     </row>
     <row r="148" spans="1:14" ht="18">
       <c r="A148" s="8" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E148" s="3">
         <v>336</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>87</v>
@@ -18866,24 +18861,24 @@
     </row>
     <row r="149" spans="1:14" ht="18">
       <c r="A149" s="8" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E149" s="3">
         <v>180</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>87</v>
@@ -18904,24 +18899,24 @@
     </row>
     <row r="150" spans="1:14" ht="18">
       <c r="A150" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E150" s="3">
         <v>350</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>87</v>
@@ -18942,24 +18937,24 @@
     </row>
     <row r="151" spans="1:14" ht="18">
       <c r="A151" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E151" s="3">
         <v>270</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>87</v>
@@ -18989,13 +18984,13 @@
         <v>341</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>87</v>
@@ -19025,13 +19020,13 @@
         <v>375</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>87</v>
@@ -21979,7 +21974,7 @@
         <v>374</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="16">
@@ -22313,7 +22308,7 @@
         <v>688</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="32">
@@ -22347,7 +22342,7 @@
         <v>688</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="32">
@@ -22947,7 +22942,7 @@
         <v>688</v>
       </c>
       <c r="N265" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="32">
@@ -23707,7 +23702,7 @@
         <v>688</v>
       </c>
       <c r="N288" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="32">
@@ -23741,7 +23736,7 @@
         <v>688</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="32">
@@ -23775,7 +23770,7 @@
         <v>688</v>
       </c>
       <c r="N290" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="32">
@@ -23809,7 +23804,7 @@
         <v>688</v>
       </c>
       <c r="N291" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="16">
@@ -24909,7 +24904,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
@@ -24927,7 +24922,7 @@
         <v>688</v>
       </c>
       <c r="N325" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="326" spans="1:14" ht="32">
@@ -28635,7 +28630,7 @@
     </row>
     <row r="18" spans="1:9" ht="16">
       <c r="A18" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B18" s="3">
         <v>7.3999999999999996E-2</v>
@@ -28644,7 +28639,7 @@
         <v>695</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
@@ -28664,16 +28659,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
@@ -28693,16 +28688,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B20" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -28722,16 +28717,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B21" s="3">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
@@ -28751,16 +28746,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B22" s="3">
         <v>0.12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
@@ -28780,16 +28775,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B23" s="3">
         <v>1.222</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
@@ -28809,16 +28804,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B24" s="3">
         <v>1.286</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
@@ -28838,16 +28833,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B25" s="3">
         <v>0.96899999999999997</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>14</v>
@@ -28867,16 +28862,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B26" s="3">
         <v>1.1639999999999999</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
@@ -28896,16 +28891,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B27" s="3">
         <v>1.4670000000000001</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
@@ -28925,13 +28920,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B28" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>687</v>
@@ -28954,16 +28949,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B29" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>14</v>
@@ -28983,16 +28978,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B30" s="3">
         <v>1.2E-2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>14</v>
@@ -29012,16 +29007,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B31" s="3">
         <v>1.9E-2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>14</v>
@@ -29041,16 +29036,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B32" s="3">
         <v>0.01</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
@@ -29070,16 +29065,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B33" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>14</v>
@@ -29099,16 +29094,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B34" s="3">
         <v>1.2E-2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>14</v>
@@ -29128,16 +29123,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B35" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -29157,16 +29152,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B36" s="3">
         <v>0.17699999999999999</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>14</v>
@@ -31132,23 +31127,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -31274,10 +31252,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31293,19 +31298,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7CA20E-B567-684F-BCE0-EE714A021FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F9A49-3810-C342-A344-10A65CBF56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13292,8 +13292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:S425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14729,7 +14729,9 @@
       <c r="A38" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>1200</v>
+      </c>
       <c r="C38" s="3">
         <v>22.5</v>
       </c>
@@ -14765,7 +14767,9 @@
       <c r="A39" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>600</v>
+      </c>
       <c r="C39" s="3">
         <v>35</v>
       </c>
@@ -14801,7 +14805,9 @@
       <c r="A40" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>600</v>
+      </c>
       <c r="C40" s="3">
         <v>35</v>
       </c>

--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337B11E-0EE6-7040-8A70-35F2DFE09EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A93D9-3881-8246-8820-F31FC97B45C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13296,7 +13296,7 @@
   <dimension ref="A1:T425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A93D9-3881-8246-8820-F31FC97B45C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1862A66C-D5C0-514B-AC3F-6F415CA7E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="1223">
   <si>
     <t>材料</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5564,6 +5564,9 @@
   </si>
   <si>
     <t>煤矸石空心砖(240mmX115mmX53mm，90%掺入量)(Coal Gangue Hollow Brick)</t>
+  </si>
+  <si>
+    <t>碳排放因子</t>
   </si>
 </sst>
 </file>
@@ -13296,7 +13299,7 @@
   <dimension ref="A1:T425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13334,7 +13337,7 @@
         <v>1215</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
+        <v>1222</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -31688,6 +31691,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101006FFF02AA8F8EC047956C616EE0928DF1" ma:contentTypeVersion="1" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8f387362ca3a3de7462eeb4857c9889f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="434e7200-003d-4cdd-8d5a-93d061eceef5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2bfc9d8ca6109376c8a423da08a92c2" ns3:_="">
     <xsd:import namespace="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
@@ -31813,24 +31833,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136CCB52-4FF3-4F15-8BAA-1A4D0BD89B49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31846,22 +31867,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carbon Emission Factor Database.xlsx
+++ b/Carbon Emission Factor Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/InteractiveDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1862A66C-D5C0-514B-AC3F-6F415CA7E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950A41F-1E13-1143-AF68-56D51CCBEE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13298,7 +13298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F4BBB-8598-4D33-B468-165E95491FC7}">
   <dimension ref="A1:T425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -31691,20 +31691,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="434e7200-003d-4cdd-8d5a-93d061eceef5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31834,19 +31834,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D909406C-E305-49F8-8E50-10262FA5F0BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAE3016-E951-4FA4-929B-4AC108E3D8E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="434e7200-003d-4cdd-8d5a-93d061eceef5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
